--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$61</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
   <si>
     <t>Family_ch_i</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>Анна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шишкина </t>
   </si>
 </sst>
 </file>
@@ -462,12 +465,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="178" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -492,18 +495,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,9 +549,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,38 +563,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -577,30 +571,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,10 +594,34 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -645,6 +648,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -657,19 +696,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,43 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,49 +750,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,43 +810,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,17 +857,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -880,6 +872,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -891,15 +892,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,9 +913,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,8 +925,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,12 +945,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,134 +977,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,13 +1113,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1125,6 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1447,10 +1451,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1494,11 +1500,11 @@
       <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="12">
         <v>44471</v>
       </c>
     </row>
-    <row r="2" ht="15.15" spans="1:10">
+    <row r="2" ht="15.15" hidden="1" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1525,8 +1531,11 @@
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-    </row>
-    <row r="3" ht="15.15" spans="1:10">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1550,9 +1559,17 @@
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" ht="15.15" hidden="1" spans="1:10">
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" hidden="1" spans="1:12">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1577,8 +1594,11 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-    </row>
-    <row r="5" ht="15.15" spans="1:10">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15" hidden="1" spans="1:12">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1603,8 +1623,11 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-    </row>
-    <row r="6" ht="15.15" spans="1:10">
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:13">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1630,9 +1653,17 @@
         <v>1</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" ht="15.15" hidden="1" spans="1:10">
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" hidden="1" spans="1:12">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1657,8 +1688,11 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-    </row>
-    <row r="8" ht="15.15" spans="1:10">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:13">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1682,9 +1716,17 @@
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" ht="15.15" spans="1:10">
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:13">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1709,10 +1751,20 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" ht="15.15" hidden="1" spans="1:10">
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" hidden="1" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1737,8 +1789,11 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" ht="15.15" spans="1:10">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:13">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1764,9 +1819,17 @@
         <v>1</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" hidden="1" spans="1:10">
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" hidden="1" spans="1:12">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -1791,8 +1854,11 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" hidden="1" spans="1:10">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" hidden="1" spans="1:12">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -1817,8 +1883,11 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" hidden="1" spans="1:10">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" hidden="1" spans="1:12">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -1843,8 +1912,11 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" hidden="1" spans="1:10">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.15" hidden="1" spans="1:12">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1869,8 +1941,11 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" hidden="1" spans="1:10">
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.15" hidden="1" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -1895,8 +1970,11 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" hidden="1" spans="1:10">
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.15" hidden="1" spans="1:12">
       <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
@@ -1921,8 +1999,11 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" ht="15.15" hidden="1" spans="1:10">
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.15" hidden="1" spans="1:12">
       <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
@@ -1947,8 +2028,11 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.15" hidden="1" spans="1:12">
       <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
@@ -1973,22 +2057,25 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.15" hidden="1" spans="1:12">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D20" s="7">
         <v>12</v>
       </c>
       <c r="E20" s="8">
-        <v>39874</v>
+        <v>39702</v>
       </c>
       <c r="F20" s="7">
         <v>6</v>
@@ -1996,216 +2083,245 @@
       <c r="G20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-    </row>
-    <row r="21" ht="15.15" spans="1:10">
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.15" hidden="1" spans="1:12">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E21" s="8">
-        <v>39702</v>
+        <v>39187</v>
       </c>
       <c r="F21" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-    </row>
-    <row r="22" ht="15.15" hidden="1" spans="1:10">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.15" hidden="1" spans="1:12">
       <c r="A22" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="8">
-        <v>39187</v>
+        <v>39625</v>
       </c>
       <c r="F22" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-    </row>
-    <row r="23" ht="15.15" spans="1:10">
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.15" hidden="1" spans="1:12">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23" s="8">
-        <v>39625</v>
+        <v>40363</v>
       </c>
       <c r="F23" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-    </row>
-    <row r="24" ht="15.15" spans="1:10">
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" hidden="1" spans="1:12">
       <c r="A24" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D24" s="7">
-        <v>11</v>
-      </c>
-      <c r="E24" s="8">
-        <v>40363</v>
+        <v>12</v>
+      </c>
+      <c r="E24" s="9">
+        <v>39972</v>
       </c>
       <c r="F24" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-    </row>
-    <row r="25" ht="15.15" hidden="1" spans="1:10">
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.15" spans="1:13">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7">
-        <v>12</v>
-      </c>
-      <c r="E25" s="9">
-        <v>39972</v>
+        <v>14</v>
+      </c>
+      <c r="E25" s="8">
+        <v>39269</v>
       </c>
       <c r="F25" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.15" hidden="1" spans="1:12">
+      <c r="A26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="7">
+        <v>10</v>
+      </c>
+      <c r="E26" s="8">
+        <v>40675</v>
+      </c>
+      <c r="F26" s="7">
+        <v>4</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="7">
-        <v>14</v>
-      </c>
-      <c r="E26" s="8">
-        <v>39269</v>
-      </c>
-      <c r="F26" s="7">
-        <v>8</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="5">
-        <v>1</v>
-      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.15" hidden="1" spans="1:12">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D27" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" s="8">
-        <v>39269</v>
+        <v>40537</v>
       </c>
       <c r="F27" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-    </row>
-    <row r="28" ht="15.15" spans="1:10">
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.15" hidden="1" spans="1:12">
       <c r="A28" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D28" s="7">
-        <v>14</v>
-      </c>
-      <c r="E28" s="9">
-        <v>39269</v>
+        <v>11</v>
+      </c>
+      <c r="E28" s="8">
+        <v>40094</v>
       </c>
       <c r="F28" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>11</v>
@@ -2213,74 +2329,85 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-    </row>
-    <row r="29" ht="15.15" hidden="1" spans="1:10">
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.15" hidden="1" spans="1:12">
       <c r="A29" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E29" s="8">
-        <v>40675</v>
+        <v>40050</v>
       </c>
       <c r="F29" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-    </row>
-    <row r="30" ht="15.15" hidden="1" spans="1:10">
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.15" hidden="1" spans="1:12">
       <c r="A30" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E30" s="8">
-        <v>40537</v>
+        <v>39942</v>
       </c>
       <c r="F30" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-    </row>
-    <row r="31" ht="15.15" spans="1:10">
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:13">
       <c r="A31" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D31" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="8">
-        <v>40094</v>
+        <v>39916</v>
       </c>
       <c r="F31" s="7">
         <v>6</v>
@@ -2288,134 +2415,157 @@
       <c r="G31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="5"/>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" ht="15.15" hidden="1" spans="1:10">
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.15" hidden="1" spans="1:12">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D32" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="8">
-        <v>40050</v>
+        <v>40130</v>
       </c>
       <c r="F32" s="7">
         <v>6</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-    </row>
-    <row r="33" ht="15.15" spans="1:10">
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.15" hidden="1" spans="1:12">
       <c r="A33" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="7">
         <v>12</v>
       </c>
       <c r="E33" s="8">
-        <v>39942</v>
+        <v>39951</v>
       </c>
       <c r="F33" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-    </row>
-    <row r="34" ht="15.15" spans="1:10">
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.15" hidden="1" spans="1:12">
       <c r="A34" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D34" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34" s="8">
-        <v>39916</v>
+        <v>40556</v>
       </c>
       <c r="F34" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-    </row>
-    <row r="35" hidden="1" spans="1:10">
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.15" spans="1:13">
       <c r="A35" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D35" s="7">
         <v>11</v>
       </c>
       <c r="E35" s="8">
-        <v>40130</v>
+        <v>40164</v>
       </c>
       <c r="F35" s="7">
         <v>6</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" ht="15.15" hidden="1" spans="1:10">
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="15.15" hidden="1" spans="1:12">
       <c r="A36" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="D36" s="7">
         <v>12</v>
       </c>
-      <c r="E36" s="8">
-        <v>39951</v>
+      <c r="E36" s="9">
+        <v>40038</v>
       </c>
       <c r="F36" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>45</v>
@@ -2423,51 +2573,57 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-    </row>
-    <row r="37" hidden="1" spans="1:10">
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.15" hidden="1" spans="1:12">
       <c r="A37" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D37" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37" s="8">
-        <v>40556</v>
+        <v>39807</v>
       </c>
       <c r="F37" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-    </row>
-    <row r="38" hidden="1" spans="1:10">
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.15" hidden="1" spans="1:12">
       <c r="A38" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D38" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38" s="8">
-        <v>40164</v>
+        <v>39710</v>
       </c>
       <c r="F38" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>18</v>
@@ -2475,103 +2631,125 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-    </row>
-    <row r="39" hidden="1" spans="1:10">
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.15" spans="1:13">
       <c r="A39" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D39" s="7">
-        <v>12</v>
-      </c>
-      <c r="E39" s="9">
-        <v>40038</v>
+        <v>11</v>
+      </c>
+      <c r="E39" s="8">
+        <v>40250</v>
       </c>
       <c r="F39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" hidden="1" spans="1:10">
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>-2</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.15" hidden="1" spans="1:12">
       <c r="A40" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D40" s="7">
         <v>12</v>
       </c>
-      <c r="E40" s="8">
-        <v>39807</v>
+      <c r="E40" s="9">
+        <v>40064</v>
       </c>
       <c r="F40" s="7">
         <v>6</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-    </row>
-    <row r="41" ht="15.15" hidden="1" spans="1:10">
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.15" hidden="1" spans="1:12">
       <c r="A41" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="D41" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E41" s="8">
-        <v>39710</v>
+        <v>40430</v>
       </c>
       <c r="F41" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-    </row>
-    <row r="42" ht="15.15" spans="1:10">
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.15" spans="1:13">
       <c r="A42" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D42" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="8">
-        <v>40250</v>
+        <v>40690</v>
       </c>
       <c r="F42" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>11</v>
@@ -2580,266 +2758,311 @@
         <v>1</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" ht="15.15" hidden="1" spans="1:10">
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" ht="15.15" hidden="1" spans="1:12">
       <c r="A43" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D43" s="7">
-        <v>12</v>
-      </c>
-      <c r="E43" s="9">
-        <v>40064</v>
+        <v>13</v>
+      </c>
+      <c r="E43" s="8">
+        <v>39635</v>
       </c>
       <c r="F43" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-    </row>
-    <row r="44" ht="15.15" hidden="1" spans="1:10">
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.15" spans="1:13">
       <c r="A44" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D44" s="7">
-        <v>10</v>
-      </c>
-      <c r="E44" s="8">
-        <v>40430</v>
+        <v>13</v>
+      </c>
+      <c r="E44" s="9">
+        <v>39425</v>
       </c>
       <c r="F44" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.15" hidden="1" spans="1:12">
+      <c r="A45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="7">
+        <v>14</v>
+      </c>
+      <c r="E45" s="8">
+        <v>39007</v>
+      </c>
+      <c r="F45" s="7">
+        <v>9</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="7">
-        <v>10</v>
-      </c>
-      <c r="E45" s="8">
-        <v>40690</v>
-      </c>
-      <c r="F45" s="7">
-        <v>6</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1</v>
-      </c>
+      <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.15" hidden="1" spans="1:12">
       <c r="A46" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D46" s="7">
-        <v>13</v>
-      </c>
-      <c r="E46" s="8">
-        <v>39635</v>
+        <v>12</v>
+      </c>
+      <c r="E46" s="9">
+        <v>40031</v>
       </c>
       <c r="F46" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="5">
-        <v>1</v>
-      </c>
+      <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-    </row>
-    <row r="47" ht="15.15" spans="1:10">
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.15" hidden="1" spans="1:12">
       <c r="A47" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D47" s="7">
-        <v>13</v>
-      </c>
-      <c r="E47" s="9">
-        <v>39425</v>
+        <v>14</v>
+      </c>
+      <c r="E47" s="8">
+        <v>39072</v>
       </c>
       <c r="F47" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="5">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-    </row>
-    <row r="48" ht="15.15" hidden="1" spans="1:10">
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.15" hidden="1" spans="1:12">
       <c r="A48" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="D48" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E48" s="8">
-        <v>39007</v>
+        <v>40014</v>
       </c>
       <c r="F48" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-    </row>
-    <row r="49" ht="15.15" spans="1:10">
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.15" hidden="1" spans="1:12">
       <c r="A49" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D49" s="7">
         <v>12</v>
       </c>
-      <c r="E49" s="9">
-        <v>40031</v>
+      <c r="E49" s="8">
+        <v>39868</v>
       </c>
       <c r="F49" s="7">
         <v>6</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-    </row>
-    <row r="50" ht="15.15" hidden="1" spans="1:10">
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.15" spans="1:13">
       <c r="A50" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D50" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E50" s="8">
-        <v>39072</v>
+        <v>39810</v>
       </c>
       <c r="F50" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" ht="15.15" spans="1:10">
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.15" hidden="1" spans="1:12">
       <c r="A51" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="D51" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E51" s="8">
-        <v>40014</v>
+        <v>40649</v>
       </c>
       <c r="F51" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-    </row>
-    <row r="52" ht="15.15" hidden="1" spans="1:10">
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="15.15" hidden="1" spans="1:12">
       <c r="A52" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="D52" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" s="8">
-        <v>39868</v>
+        <v>40416</v>
       </c>
       <c r="F52" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>18</v>
@@ -2847,53 +3070,55 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-    </row>
-    <row r="53" ht="15.15" spans="1:10">
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.15" hidden="1" spans="1:12">
       <c r="A53" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D53" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" s="8">
-        <v>39810</v>
+        <v>40416</v>
       </c>
       <c r="F53" s="7">
-        <v>6</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-    </row>
-    <row r="54" ht="15.15" hidden="1" spans="1:10">
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.15" hidden="1" spans="1:12">
       <c r="A54" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="D54" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" s="8">
-        <v>40649</v>
+        <v>39561</v>
       </c>
       <c r="F54" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>45</v>
@@ -2901,100 +3126,114 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-    </row>
-    <row r="55" ht="15.15" hidden="1" spans="1:10">
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.15" hidden="1" spans="1:12">
       <c r="A55" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D55" s="7">
+        <v>12</v>
+      </c>
+      <c r="E55" s="9">
+        <v>39838</v>
+      </c>
+      <c r="F55" s="7">
+        <v>7</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="8">
-        <v>40416</v>
-      </c>
-      <c r="F55" s="7">
-        <v>5</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="5"/>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-    </row>
-    <row r="56" ht="15.15" spans="1:10">
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.15" hidden="1" spans="1:12">
       <c r="A56" s="5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D56" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E56" s="8">
-        <v>40416</v>
+        <v>39821</v>
       </c>
       <c r="F56" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
-    </row>
-    <row r="57" ht="15.15" hidden="1" spans="1:10">
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.15" hidden="1" spans="1:12">
       <c r="A57" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="D57" s="7">
         <v>13</v>
       </c>
-      <c r="E57" s="8">
-        <v>39561</v>
+      <c r="E57" s="9">
+        <v>39550</v>
       </c>
       <c r="F57" s="7">
         <v>7</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
-    </row>
-    <row r="58" ht="15.15" spans="1:10">
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.15" spans="1:13">
       <c r="A58" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="D58" s="7">
-        <v>12</v>
-      </c>
-      <c r="E58" s="9">
-        <v>39838</v>
+        <v>13</v>
+      </c>
+      <c r="E58" s="8">
+        <v>39529</v>
       </c>
       <c r="F58" s="7">
         <v>7</v>
@@ -3006,78 +3245,98 @@
         <v>1</v>
       </c>
       <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" ht="15.15" hidden="1" spans="1:10">
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" ht="15.15" spans="1:13">
       <c r="A59" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D59" s="7">
+        <v>11</v>
+      </c>
+      <c r="E59" s="8">
+        <v>40129</v>
+      </c>
+      <c r="F59" s="7">
+        <v>5</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" ht="15.15" hidden="1" spans="1:12">
+      <c r="A60" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="5">
         <v>12</v>
       </c>
-      <c r="E59" s="8">
-        <v>39821</v>
-      </c>
-      <c r="F59" s="7">
-        <v>6</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" s="7">
-        <v>13</v>
-      </c>
-      <c r="E60" s="9">
-        <v>39550</v>
-      </c>
-      <c r="F60" s="7">
-        <v>7</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.15" spans="1:13">
       <c r="A61" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="7">
-        <v>13</v>
-      </c>
-      <c r="E61" s="8">
-        <v>39529</v>
-      </c>
-      <c r="F61" s="7">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="D61" s="5">
+        <v>12</v>
+      </c>
+      <c r="E61" s="11">
+        <v>39987</v>
+      </c>
+      <c r="F61" s="5">
+        <v>6</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>11</v>
@@ -3085,60 +3344,44 @@
       <c r="H61" s="5">
         <v>1</v>
       </c>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
+      <c r="I61" s="5">
+        <v>2</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" ht="15.15" spans="1:10">
-      <c r="A62" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="7">
-        <v>11</v>
-      </c>
-      <c r="E62" s="8">
-        <v>40129</v>
-      </c>
-      <c r="F62" s="7">
-        <v>5</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="5">
-        <v>1</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" ht="15.15" hidden="1" spans="1:10">
-      <c r="A63" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="5">
-        <v>12</v>
-      </c>
+    <row r="63" ht="15.15" spans="1:10">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="5">
-        <v>1</v>
-      </c>
+      <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" ht="15.15" spans="1:10">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3150,7 +3393,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" ht="15.15" spans="1:10">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3162,7 +3405,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" ht="15.15" spans="1:10">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3174,7 +3417,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" ht="15.15" spans="1:10">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3186,7 +3429,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" ht="15.15" spans="1:10">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3198,7 +3441,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" ht="15.15" spans="1:10">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3210,7 +3453,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" ht="15.15" spans="1:10">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3222,7 +3465,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" ht="15.15" spans="1:10">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3234,7 +3477,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" ht="15.15" spans="1:10">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3246,7 +3489,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" ht="15.15" spans="1:10">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3258,7 +3501,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" ht="15.15" spans="1:10">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3270,7 +3513,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" ht="15.15" spans="1:10">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3282,7 +3525,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" ht="15.15" spans="1:10">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3294,7 +3537,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" ht="15.15" spans="1:10">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3306,7 +3549,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" ht="15.15" spans="1:10">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3318,7 +3561,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" ht="15.15" spans="1:10">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3330,7 +3573,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" ht="15.15" spans="1:10">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3342,7 +3585,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" ht="15.15" spans="1:10">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3354,7 +3597,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" ht="15.15" spans="1:10">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3366,7 +3609,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" ht="15.15" spans="1:10">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3378,7 +3621,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" ht="15.15" spans="1:10">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3390,7 +3633,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" ht="15.15" spans="1:10">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3402,7 +3645,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" ht="15.15" spans="1:10">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3414,7 +3657,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" ht="15.15" spans="1:10">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3426,7 +3669,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" ht="15.15" spans="1:10">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3438,7 +3681,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" ht="15.15" spans="1:10">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3450,7 +3693,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" ht="15.15" spans="1:10">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3462,7 +3705,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" ht="15.15" spans="1:10">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3474,7 +3717,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" ht="15.15" spans="1:10">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3486,7 +3729,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" ht="15.15" spans="1:10">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3498,7 +3741,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" ht="15.15" spans="1:10">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3510,7 +3753,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" ht="15.15" spans="1:10">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3522,7 +3765,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" ht="15.15" spans="1:10">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3534,7 +3777,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" ht="15.15" spans="1:10">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3546,7 +3789,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" ht="15.15" spans="1:10">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3558,7 +3801,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" ht="15.15" spans="1:10">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3570,7 +3813,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" ht="15.15" spans="1:10">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3582,7 +3825,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" ht="15.15" spans="1:10">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3594,7 +3837,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" ht="15.15" spans="1:10">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3606,7 +3849,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" ht="15.15" spans="1:10">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3618,7 +3861,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" ht="15.15" spans="1:10">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3630,7 +3873,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" ht="15.15" spans="1:10">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3642,7 +3885,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" ht="15.15" spans="1:10">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3654,7 +3897,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" ht="15.15" spans="1:10">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3666,7 +3909,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" ht="15.15" spans="1:10">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3678,7 +3921,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" ht="15.15" spans="1:10">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3690,7 +3933,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" ht="15.15" spans="1:10">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3702,7 +3945,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" ht="15.15" spans="1:10">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3714,7 +3957,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" ht="15.15" spans="1:10">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3726,7 +3969,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" ht="15.15" spans="1:10">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3738,7 +3981,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" ht="15.15" spans="1:10">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3750,7 +3993,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" ht="15.15" spans="1:10">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3762,7 +4005,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" ht="15.15" spans="1:10">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3774,7 +4017,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" ht="15.15" spans="1:10">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3786,7 +4029,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" ht="15.15" spans="1:10">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3798,7 +4041,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" ht="15.15" spans="1:10">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3810,7 +4053,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" ht="15.15" spans="1:10">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -3822,7 +4065,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" ht="15.15" spans="1:10">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -3834,7 +4077,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" ht="15.15" spans="1:10">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -3846,7 +4089,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" ht="15.15" spans="1:10">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -3858,7 +4101,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" ht="15.15" spans="1:10">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -3870,7 +4113,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" ht="15.15" spans="1:10">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -3882,7 +4125,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" ht="15.15" spans="1:10">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -3894,7 +4137,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" ht="15.15" spans="1:10">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -3906,7 +4149,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" ht="15.15" spans="1:10">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -3918,7 +4161,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" ht="15.15" spans="1:10">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -3930,7 +4173,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" ht="15.15" spans="1:10">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -3942,7 +4185,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" ht="15.15" spans="1:10">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -3954,7 +4197,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" ht="15.15" spans="1:10">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -3966,7 +4209,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" ht="15.15" spans="1:10">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3978,7 +4221,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" ht="15.15" spans="1:10">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -3990,7 +4233,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" ht="15.15" spans="1:10">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4002,7 +4245,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" ht="15.15" spans="1:10">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4014,7 +4257,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" ht="15.15" spans="1:10">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4026,7 +4269,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" ht="15.15" spans="1:10">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4038,7 +4281,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" ht="15.15" spans="1:10">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4050,7 +4293,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" ht="15.15" spans="1:10">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4062,7 +4305,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" ht="15.15" spans="1:10">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4074,7 +4317,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" ht="15.15" spans="1:10">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4086,7 +4329,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" ht="15.15" spans="1:10">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4098,7 +4341,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" ht="15.15" spans="1:10">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4110,7 +4353,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" ht="15.15" spans="1:10">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4122,7 +4365,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" ht="15.15" spans="1:10">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4134,7 +4377,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" ht="15.15" spans="1:10">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4146,7 +4389,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" ht="15.15" spans="1:10">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4158,7 +4401,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" ht="15.15" spans="1:10">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4170,7 +4413,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" ht="15.15" spans="1:10">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4182,47 +4425,11 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="1:10">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G63">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:M61">
+    <filterColumn colId="9">
       <customFilters>
-        <customFilter operator="equal" val="ВМ"/>
+        <customFilter operator="equal" val="1"/>
       </customFilters>
     </filterColumn>
     <extLst/>

--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -43,6 +43,39 @@
     <t>Лекторий</t>
   </si>
   <si>
+    <t>Бритиков</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Ильич</t>
+  </si>
+  <si>
+    <t>ВМ</t>
+  </si>
+  <si>
+    <t>Смогур</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
+  </si>
+  <si>
+    <t>Батуев</t>
+  </si>
+  <si>
+    <t>Алексеевич</t>
+  </si>
+  <si>
+    <t>Группа 1. Педагог Алексей Валерьевич Полоскин. Основной день занятий Понедельник. Дополнительный день (практическое занятие один раз в месяц) - Четверг.</t>
+  </si>
+  <si>
+    <t>Шевц</t>
+  </si>
+  <si>
+    <t>Владиславович</t>
+  </si>
+  <si>
     <t>Андреева</t>
   </si>
   <si>
@@ -52,7 +85,34 @@
     <t>Сергеевна</t>
   </si>
   <si>
-    <t>ВМ</t>
+    <t>Белоконь</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Владиславовна</t>
+  </si>
+  <si>
+    <t>Сердюкова</t>
+  </si>
+  <si>
+    <t>Дмитриевна</t>
+  </si>
+  <si>
+    <t>Разумовская</t>
+  </si>
+  <si>
+    <t>Алёна</t>
+  </si>
+  <si>
+    <t>Булгарина</t>
+  </si>
+  <si>
+    <t>Мари</t>
+  </si>
+  <si>
+    <t>Александровна</t>
   </si>
   <si>
     <t>Аникина</t>
@@ -64,16 +124,262 @@
     <t>Денисовна</t>
   </si>
   <si>
-    <t>Батуев</t>
-  </si>
-  <si>
-    <t>Александр</t>
-  </si>
-  <si>
-    <t>Алексеевич</t>
-  </si>
-  <si>
-    <t>Группа 1. Педагог Алексей Валерьевич Полоскин. Основной день занятий Понедельник. Дополнительный день (практическое занятие один раз в месяц) - Четверг.</t>
+    <t>Горносталев</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Гуляева</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>Андреевна</t>
+  </si>
+  <si>
+    <t>Добровольските</t>
+  </si>
+  <si>
+    <t>Робертовна</t>
+  </si>
+  <si>
+    <t>Группа 2. Педагог Дмитрий Алексеевич Аристов. Основной день занятий Пятница. Дополнительный день (практическое занятие один раз в месяц) - Вторник.</t>
+  </si>
+  <si>
+    <t>Донченко</t>
+  </si>
+  <si>
+    <t>Кир</t>
+  </si>
+  <si>
+    <t>Викторович</t>
+  </si>
+  <si>
+    <t>Зубаха</t>
+  </si>
+  <si>
+    <t>Максимовна</t>
+  </si>
+  <si>
+    <t>Зуева</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>Витальевна</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>Игнатьева</t>
+  </si>
+  <si>
+    <t>Корнильева</t>
+  </si>
+  <si>
+    <t>Ангелина</t>
+  </si>
+  <si>
+    <t>Илющенко</t>
+  </si>
+  <si>
+    <t>Маргарита</t>
+  </si>
+  <si>
+    <t>Анатольевна</t>
+  </si>
+  <si>
+    <t>Ищенко</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Дмитриевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шишкина </t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Колосова</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Юрьевна</t>
+  </si>
+  <si>
+    <t>Тюпин</t>
+  </si>
+  <si>
+    <t>Арсений</t>
+  </si>
+  <si>
+    <t>Евгеньевич</t>
+  </si>
+  <si>
+    <t>Круглова</t>
+  </si>
+  <si>
+    <t>Вера</t>
+  </si>
+  <si>
+    <t>Евгеньевна</t>
+  </si>
+  <si>
+    <t>Кудрец</t>
+  </si>
+  <si>
+    <t>Артемий</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Курганов</t>
+  </si>
+  <si>
+    <t>Курилова</t>
+  </si>
+  <si>
+    <t>Киселев</t>
+  </si>
+  <si>
+    <t>Вениамин</t>
+  </si>
+  <si>
+    <t>Надточий</t>
+  </si>
+  <si>
+    <t>Руслановна</t>
+  </si>
+  <si>
+    <t>Микулич</t>
+  </si>
+  <si>
+    <t>Мутина</t>
+  </si>
+  <si>
+    <t>София</t>
+  </si>
+  <si>
+    <t>Евдокия</t>
+  </si>
+  <si>
+    <t>Тимофеевна</t>
+  </si>
+  <si>
+    <t>Петров</t>
+  </si>
+  <si>
+    <t>Виктор</t>
+  </si>
+  <si>
+    <t>Назмиева</t>
+  </si>
+  <si>
+    <t>Вероника</t>
+  </si>
+  <si>
+    <t>Леонидовна</t>
+  </si>
+  <si>
+    <t>Орлова</t>
+  </si>
+  <si>
+    <t>Агата</t>
+  </si>
+  <si>
+    <t>Константиновна</t>
+  </si>
+  <si>
+    <t>Песочинский</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>Аркадьевич</t>
+  </si>
+  <si>
+    <t>Шеламова</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t>Плечева</t>
+  </si>
+  <si>
+    <t>Елизавета</t>
+  </si>
+  <si>
+    <t>Попов</t>
+  </si>
+  <si>
+    <t>Лазарев</t>
+  </si>
+  <si>
+    <t>Георгий</t>
+  </si>
+  <si>
+    <t>Шабунова</t>
+  </si>
+  <si>
+    <t>Кирилловна</t>
+  </si>
+  <si>
+    <t>Бекасов</t>
+  </si>
+  <si>
+    <t>Емельян</t>
+  </si>
+  <si>
+    <t>Игоревич</t>
+  </si>
+  <si>
+    <t>Сергеева</t>
+  </si>
+  <si>
+    <t>Сильвестровна</t>
+  </si>
+  <si>
+    <t>Израилев</t>
+  </si>
+  <si>
+    <t>Игорь</t>
+  </si>
+  <si>
+    <t>Станиславович</t>
+  </si>
+  <si>
+    <t>Синепалова</t>
+  </si>
+  <si>
+    <t>Злата</t>
+  </si>
+  <si>
+    <t>Васильев</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Соловьев</t>
+  </si>
+  <si>
+    <t>Алексей</t>
   </si>
   <si>
     <t>Башаров</t>
@@ -85,22 +391,58 @@
     <t>Антонович</t>
   </si>
   <si>
-    <t>Бекасов</t>
-  </si>
-  <si>
-    <t>Емельян</t>
-  </si>
-  <si>
-    <t>Игоревич</t>
-  </si>
-  <si>
-    <t>Белоконь</t>
-  </si>
-  <si>
-    <t>Екатерина</t>
-  </si>
-  <si>
-    <t>Владиславовна</t>
+    <t>Фисун</t>
+  </si>
+  <si>
+    <t>Даниил</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>Фридман</t>
+  </si>
+  <si>
+    <t>Арина</t>
+  </si>
+  <si>
+    <t>Михайловна</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>Черецкая</t>
+  </si>
+  <si>
+    <t>Василиса</t>
+  </si>
+  <si>
+    <t>Прибыткин</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
+    <t>Шалунов</t>
+  </si>
+  <si>
+    <t>Олегович</t>
+  </si>
+  <si>
+    <t>Яковлева</t>
+  </si>
+  <si>
+    <t>Владимировна</t>
+  </si>
+  <si>
+    <t>Меньшиков</t>
+  </si>
+  <si>
+    <t>Савва</t>
   </si>
   <si>
     <t>Белышев</t>
@@ -109,355 +451,13 @@
     <t>Федор</t>
   </si>
   <si>
-    <t>Дмитриевич</t>
-  </si>
-  <si>
-    <t>Бритиков</t>
-  </si>
-  <si>
-    <t>Ильич</t>
-  </si>
-  <si>
-    <t>Булгарина</t>
-  </si>
-  <si>
-    <t>Мари</t>
-  </si>
-  <si>
-    <t>Александровна</t>
-  </si>
-  <si>
-    <t>Васильев</t>
-  </si>
-  <si>
-    <t>Илья</t>
-  </si>
-  <si>
-    <t>Горносталев</t>
-  </si>
-  <si>
-    <t>Никита</t>
-  </si>
-  <si>
-    <t>Гуляева</t>
-  </si>
-  <si>
-    <t>Анастасия</t>
-  </si>
-  <si>
-    <t>Андреевна</t>
-  </si>
-  <si>
-    <t>Добровольските</t>
-  </si>
-  <si>
-    <t>Робертовна</t>
-  </si>
-  <si>
-    <t>Группа 2. Педагог Дмитрий Алексеевич Аристов. Основной день занятий Пятница. Дополнительный день (практическое занятие один раз в месяц) - Вторник.</t>
-  </si>
-  <si>
-    <t>Донченко</t>
-  </si>
-  <si>
-    <t>Кир</t>
-  </si>
-  <si>
-    <t>Викторович</t>
-  </si>
-  <si>
-    <t>Зубаха</t>
-  </si>
-  <si>
-    <t>Максимовна</t>
-  </si>
-  <si>
-    <t>Зуева</t>
-  </si>
-  <si>
-    <t>Полина</t>
-  </si>
-  <si>
-    <t>Витальевна</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Павел</t>
-  </si>
-  <si>
-    <t>Сергеевич</t>
-  </si>
-  <si>
-    <t>Игнатьева</t>
-  </si>
-  <si>
-    <t>Израилев</t>
-  </si>
-  <si>
-    <t>Игорь</t>
-  </si>
-  <si>
-    <t>Станиславович</t>
-  </si>
-  <si>
-    <t>Илющенко</t>
-  </si>
-  <si>
-    <t>Маргарита</t>
-  </si>
-  <si>
-    <t>Анатольевна</t>
-  </si>
-  <si>
-    <t>Ищенко</t>
-  </si>
-  <si>
-    <t>Андрей</t>
-  </si>
-  <si>
-    <t>Киселев</t>
-  </si>
-  <si>
-    <t>Вениамин</t>
-  </si>
-  <si>
-    <t>Колосова</t>
-  </si>
-  <si>
-    <t>Мария</t>
-  </si>
-  <si>
-    <t>Юрьевна</t>
-  </si>
-  <si>
-    <t>Корнильева</t>
-  </si>
-  <si>
-    <t>Ангелина</t>
-  </si>
-  <si>
-    <t>Круглова</t>
-  </si>
-  <si>
-    <t>Вера</t>
-  </si>
-  <si>
-    <t>Евгеньевна</t>
-  </si>
-  <si>
-    <t>Кудрец</t>
-  </si>
-  <si>
-    <t>Артемий</t>
-  </si>
-  <si>
-    <t>Андреевич</t>
-  </si>
-  <si>
-    <t>Курганов</t>
-  </si>
-  <si>
-    <t>Курилова</t>
-  </si>
-  <si>
-    <t>Лазарев</t>
-  </si>
-  <si>
-    <t>Георгий</t>
-  </si>
-  <si>
-    <t>Меньшиков</t>
-  </si>
-  <si>
-    <t>Савва</t>
-  </si>
-  <si>
-    <t>Микулич</t>
-  </si>
-  <si>
-    <t>Дмитриевна</t>
-  </si>
-  <si>
-    <t>Мутина</t>
-  </si>
-  <si>
-    <t>София</t>
-  </si>
-  <si>
-    <t>Евдокия</t>
-  </si>
-  <si>
-    <t>Тимофеевна</t>
-  </si>
-  <si>
-    <t>Надточий</t>
-  </si>
-  <si>
-    <t>Руслановна</t>
-  </si>
-  <si>
-    <t>Назмиева</t>
-  </si>
-  <si>
-    <t>Вероника</t>
-  </si>
-  <si>
-    <t>Леонидовна</t>
-  </si>
-  <si>
-    <t>Орлова</t>
-  </si>
-  <si>
-    <t>Агата</t>
-  </si>
-  <si>
-    <t>Константиновна</t>
-  </si>
-  <si>
-    <t>Песочинский</t>
-  </si>
-  <si>
-    <t>Михаил</t>
-  </si>
-  <si>
-    <t>Аркадьевич</t>
-  </si>
-  <si>
-    <t>Петров</t>
-  </si>
-  <si>
-    <t>Виктор</t>
-  </si>
-  <si>
-    <t>Плечева</t>
-  </si>
-  <si>
-    <t>Елизавета</t>
-  </si>
-  <si>
-    <t>Попов</t>
-  </si>
-  <si>
-    <t>Прибыткин</t>
-  </si>
-  <si>
-    <t>Максим</t>
-  </si>
-  <si>
-    <t>Владимирович</t>
-  </si>
-  <si>
-    <t>Разумовская</t>
-  </si>
-  <si>
-    <t>Алёна</t>
+    <t xml:space="preserve">Шишикина </t>
   </si>
   <si>
     <t>Рыбченко</t>
   </si>
   <si>
     <t>Ярослава</t>
-  </si>
-  <si>
-    <t>Сергеева</t>
-  </si>
-  <si>
-    <t>Сильвестровна</t>
-  </si>
-  <si>
-    <t>Сердюкова</t>
-  </si>
-  <si>
-    <t>Синепалова</t>
-  </si>
-  <si>
-    <t>Злата</t>
-  </si>
-  <si>
-    <t>Смогур</t>
-  </si>
-  <si>
-    <t>Соловьев</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>Тюпин</t>
-  </si>
-  <si>
-    <t>Арсений</t>
-  </si>
-  <si>
-    <t>Евгеньевич</t>
-  </si>
-  <si>
-    <t>Фисун</t>
-  </si>
-  <si>
-    <t>Даниил</t>
-  </si>
-  <si>
-    <t>Александрович</t>
-  </si>
-  <si>
-    <t>Фридман</t>
-  </si>
-  <si>
-    <t>Арина</t>
-  </si>
-  <si>
-    <t>Михайловна</t>
-  </si>
-  <si>
-    <t>Дарья</t>
-  </si>
-  <si>
-    <t>Черецкая</t>
-  </si>
-  <si>
-    <t>Василиса</t>
-  </si>
-  <si>
-    <t>Шабунова</t>
-  </si>
-  <si>
-    <t>Кирилловна</t>
-  </si>
-  <si>
-    <t>Шалунов</t>
-  </si>
-  <si>
-    <t>Олегович</t>
-  </si>
-  <si>
-    <t>Шевц</t>
-  </si>
-  <si>
-    <t>Владиславович</t>
-  </si>
-  <si>
-    <t>Шеламова</t>
-  </si>
-  <si>
-    <t>Виктория</t>
-  </si>
-  <si>
-    <t>Яковлева</t>
-  </si>
-  <si>
-    <t>Владимировна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шишикина </t>
-  </si>
-  <si>
-    <t>Анна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шишкина </t>
   </si>
 </sst>
 </file>
@@ -465,10 +465,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="dd\.mmm"/>
     <numFmt numFmtId="179" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
@@ -495,6 +495,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -503,9 +564,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,30 +588,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,72 +617,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -654,7 +654,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,169 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,6 +858,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -876,7 +909,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,45 +954,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,139 +968,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,10 +1125,10 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1450,13 +1450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M150"/>
+  <sheetPr/>
+  <dimension ref="A1:U150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F45" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="T60" sqref="T60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1469,10 +1471,18 @@
     <col min="6" max="6" width="8.88888888888889" style="1" customWidth="1"/>
     <col min="7" max="9" width="8.88888888888889" style="1"/>
     <col min="10" max="10" width="10.8888888888889" style="1"/>
-    <col min="11" max="16384" width="8.88888888888889" style="1"/>
+    <col min="11" max="11" width="2.66666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.66666666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.82407407407407" style="1" customWidth="1"/>
+    <col min="15" max="16" width="2.66666666666667" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.8888888888889" style="1"/>
+    <col min="18" max="18" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="19" max="21" width="2.66666666666667" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:10">
+    <row r="1" ht="15.15" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1503,8 +1513,14 @@
       <c r="J1" s="12">
         <v>44471</v>
       </c>
-    </row>
-    <row r="2" ht="15.15" hidden="1" spans="1:12">
+      <c r="N1" s="12">
+        <v>44478</v>
+      </c>
+      <c r="Q1" s="12">
+        <v>44485</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1518,10 +1534,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="8">
-        <v>39818</v>
+        <v>39849</v>
       </c>
       <c r="F2" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
@@ -1529,55 +1545,69 @@
       <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="7">
         <v>12</v>
       </c>
       <c r="E3" s="8">
-        <v>39702</v>
+        <v>40014</v>
       </c>
       <c r="F3" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="15.15" hidden="1" spans="1:12">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:12">
       <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="7">
         <v>13</v>
@@ -1589,7 +1619,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1598,24 +1628,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.15" hidden="1" spans="1:12">
+    <row r="5" ht="15.15" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="9">
-        <v>39976</v>
+        <v>39550</v>
       </c>
       <c r="F5" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>11</v>
@@ -1623,25 +1653,22 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.15" spans="1:13">
+    </row>
+    <row r="6" ht="15.15" spans="1:20">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
         <v>12</v>
       </c>
       <c r="E6" s="8">
-        <v>39857</v>
+        <v>39818</v>
       </c>
       <c r="F6" s="7">
         <v>6</v>
@@ -1653,25 +1680,29 @@
         <v>1</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="J6" s="5"/>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>8</v>
+      </c>
+      <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="1">
+      <c r="T6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15.15" hidden="1" spans="1:12">
+    <row r="7" ht="15.15" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
         <v>15</v>
@@ -1683,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1692,55 +1723,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:13">
+    <row r="8" ht="15.15" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>10</v>
-      </c>
-      <c r="E8" s="8">
-        <v>40499</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="9">
+        <v>40031</v>
       </c>
       <c r="F8" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.15" spans="1:13">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" ht="15.15" spans="1:20">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="8">
-        <v>39849</v>
+        <v>39635</v>
       </c>
       <c r="F9" s="7">
         <v>7</v>
@@ -1751,28 +1774,33 @@
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.15" hidden="1" spans="1:12">
+    </row>
+    <row r="10" ht="15.15" spans="1:12">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
         <v>13</v>
@@ -1784,7 +1812,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1793,21 +1821,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:13">
+    <row r="11" ht="15.15" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8">
-        <v>39462</v>
+        <v>39702</v>
       </c>
       <c r="F11" s="7">
         <v>7</v>
@@ -1815,29 +1843,21 @@
       <c r="G11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.15" hidden="1" spans="1:12">
+    </row>
+    <row r="12" ht="15.15" spans="1:12">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
         <v>12</v>
@@ -1849,7 +1869,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1858,15 +1878,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.15" hidden="1" spans="1:12">
+    <row r="13" ht="15.15" spans="1:12">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
         <v>13</v>
@@ -1878,7 +1898,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1887,15 +1907,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.15" hidden="1" spans="1:12">
+    <row r="14" ht="15.15" spans="1:12">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
         <v>12</v>
@@ -1907,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1916,15 +1936,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15.15" hidden="1" spans="1:12">
+    <row r="15" ht="15.15" spans="1:12">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D15" s="7">
         <v>11</v>
@@ -1936,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1945,15 +1965,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15.15" hidden="1" spans="1:12">
+    <row r="16" ht="15.15" spans="1:12">
       <c r="A16" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7">
         <v>12</v>
@@ -1965,7 +1985,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1974,15 +1994,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15.15" hidden="1" spans="1:12">
+    <row r="17" ht="15.15" spans="1:12">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7">
         <v>11</v>
@@ -1994,7 +2014,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -2003,15 +2023,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15.15" hidden="1" spans="1:12">
+    <row r="18" ht="15.15" spans="1:12">
       <c r="A18" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
         <v>11</v>
@@ -2023,7 +2043,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -2032,15 +2052,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.15" hidden="1" spans="1:12">
+    <row r="19" ht="15.15" spans="1:20">
       <c r="A19" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7">
         <v>12</v>
@@ -2057,28 +2077,37 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.15" hidden="1" spans="1:12">
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>5</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" ht="15.15" spans="1:20">
       <c r="A20" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E20" s="8">
-        <v>39702</v>
+        <v>39269</v>
       </c>
       <c r="F20" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>11</v>
@@ -2087,20 +2116,31 @@
         <v>1</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="L20" s="1">
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>12</v>
+      </c>
+      <c r="S20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" ht="15.15" hidden="1" spans="1:12">
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.15" spans="1:12">
       <c r="A21" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7">
         <v>14</v>
@@ -2112,7 +2152,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -2121,15 +2161,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.15" hidden="1" spans="1:12">
+    <row r="22" ht="15.15" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D22" s="7">
         <v>13</v>
@@ -2146,28 +2186,25 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.15" hidden="1" spans="1:12">
+    </row>
+    <row r="23" ht="15.15" spans="1:20">
       <c r="A23" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="7">
-        <v>11</v>
-      </c>
-      <c r="E23" s="8">
-        <v>40363</v>
-      </c>
-      <c r="F23" s="7">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="D23" s="5">
+        <v>12</v>
+      </c>
+      <c r="E23" s="10">
+        <v>39987</v>
+      </c>
+      <c r="F23" s="5">
+        <v>6</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>11</v>
@@ -2175,21 +2212,43 @@
       <c r="H23" s="5">
         <v>1</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.15" hidden="1" spans="1:12">
+      <c r="I23" s="5">
+        <v>2</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2</v>
+      </c>
+      <c r="P23" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>7</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" spans="1:12">
       <c r="A24" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D24" s="7">
         <v>12</v>
@@ -2201,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2210,24 +2269,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:13">
+    <row r="25" ht="15.15" spans="1:10">
       <c r="A25" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D25" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="8">
-        <v>39269</v>
+        <v>39810</v>
       </c>
       <c r="F25" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>11</v>
@@ -2239,22 +2298,16 @@
       <c r="J25" s="5">
         <v>1</v>
       </c>
-      <c r="L25" s="1">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.15" hidden="1" spans="1:12">
+    </row>
+    <row r="26" ht="15.15" spans="1:12">
       <c r="A26" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D26" s="7">
         <v>10</v>
@@ -2266,7 +2319,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -2275,15 +2328,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.15" hidden="1" spans="1:12">
+    <row r="27" ht="15.15" spans="1:12">
       <c r="A27" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
         <v>10</v>
@@ -2295,7 +2348,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -2304,15 +2357,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.15" hidden="1" spans="1:12">
+    <row r="28" ht="15.15" spans="1:10">
       <c r="A28" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D28" s="7">
         <v>11</v>
@@ -2329,19 +2382,16 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.15" hidden="1" spans="1:12">
+    </row>
+    <row r="29" ht="15.15" spans="1:12">
       <c r="A29" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D29" s="7">
         <v>12</v>
@@ -2353,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -2362,24 +2412,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.15" hidden="1" spans="1:12">
+    <row r="30" ht="15.15" spans="1:10">
       <c r="A30" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D30" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="8">
-        <v>39942</v>
+        <v>40363</v>
       </c>
       <c r="F30" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>11</v>
@@ -2389,25 +2439,22 @@
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.15" spans="1:13">
+    </row>
+    <row r="31" ht="15.15" spans="1:14">
       <c r="A31" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D31" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="8">
-        <v>39916</v>
+        <v>40164</v>
       </c>
       <c r="F31" s="7">
         <v>6</v>
@@ -2415,29 +2462,27 @@
       <c r="G31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
+      <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5">
         <v>1</v>
       </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
       <c r="M31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.15" hidden="1" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="15.15" spans="1:12">
       <c r="A32" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D32" s="7">
         <v>11</v>
@@ -2449,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2458,14 +2503,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.15" hidden="1" spans="1:12">
+    <row r="33" ht="15.15" spans="1:12">
       <c r="A33" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="10"/>
+        <v>84</v>
+      </c>
+      <c r="C33" s="11"/>
       <c r="D33" s="7">
         <v>12</v>
       </c>
@@ -2476,7 +2521,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -2485,15 +2530,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.15" hidden="1" spans="1:12">
+    <row r="34" ht="15.15" spans="1:12">
       <c r="A34" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D34" s="7">
         <v>10</v>
@@ -2505,7 +2550,7 @@
         <v>5</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -2514,49 +2559,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.15" spans="1:13">
+    <row r="35" ht="15.15" spans="1:20">
       <c r="A35" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="D35" s="7">
         <v>11</v>
       </c>
       <c r="E35" s="8">
-        <v>40164</v>
+        <v>40250</v>
       </c>
       <c r="F35" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="5"/>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5">
         <v>1</v>
       </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
       <c r="L35" s="1">
+        <v>-2</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1">
+        <v>3</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1">
         <v>0</v>
       </c>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" ht="15.15" hidden="1" spans="1:12">
+    </row>
+    <row r="36" ht="15.15" spans="1:12">
       <c r="A36" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D36" s="7">
         <v>12</v>
@@ -2568,7 +2627,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2577,15 +2636,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15.15" hidden="1" spans="1:12">
+    <row r="37" ht="15.15" spans="1:12">
       <c r="A37" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D37" s="7">
         <v>12</v>
@@ -2597,7 +2656,7 @@
         <v>6</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -2606,15 +2665,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15.15" hidden="1" spans="1:12">
+    <row r="38" ht="15.15" spans="1:12">
       <c r="A38" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D38" s="7">
         <v>12</v>
@@ -2626,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -2635,24 +2694,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.15" spans="1:13">
+    <row r="39" ht="15.15" spans="1:20">
       <c r="A39" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D39" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E39" s="8">
-        <v>40250</v>
+        <v>39529</v>
       </c>
       <c r="F39" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>11</v>
@@ -2667,22 +2726,34 @@
       <c r="K39" s="1">
         <v>1</v>
       </c>
-      <c r="L39" s="1">
-        <v>-2</v>
-      </c>
       <c r="M39" s="1">
+        <v>2</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+      <c r="R39" s="1">
+        <v>17</v>
+      </c>
+      <c r="S39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" ht="15.15" hidden="1" spans="1:12">
+      <c r="T39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" ht="15.15" spans="1:12">
       <c r="A40" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D40" s="7">
         <v>12</v>
@@ -2694,7 +2765,7 @@
         <v>6</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2703,15 +2774,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15.15" hidden="1" spans="1:12">
+    <row r="41" ht="15.15" spans="1:12">
       <c r="A41" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="7">
         <v>10</v>
@@ -2723,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -2732,21 +2803,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.15" spans="1:13">
+    <row r="42" ht="15.15" spans="1:20">
       <c r="A42" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D42" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E42" s="8">
-        <v>40690</v>
+        <v>39942</v>
       </c>
       <c r="F42" s="7">
         <v>6</v>
@@ -2758,31 +2829,35 @@
         <v>1</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="5">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
+      <c r="J42" s="5"/>
+      <c r="Q42" s="1">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1">
+        <v>5</v>
+      </c>
+      <c r="S42" s="1">
+        <v>1</v>
+      </c>
+      <c r="T42" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="43" ht="15.15" hidden="1" spans="1:12">
+    <row r="43" ht="15.15" spans="1:20">
       <c r="A43" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="D43" s="7">
-        <v>13</v>
-      </c>
-      <c r="E43" s="8">
-        <v>39635</v>
+        <v>12</v>
+      </c>
+      <c r="E43" s="9">
+        <v>39838</v>
       </c>
       <c r="F43" s="7">
         <v>7</v>
@@ -2795,28 +2870,37 @@
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.15" spans="1:13">
+      <c r="Q43" s="1">
+        <v>1</v>
+      </c>
+      <c r="R43" s="1">
+        <v>16</v>
+      </c>
+      <c r="S43" s="1">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="15.15" spans="1:21">
       <c r="A44" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D44" s="7">
-        <v>13</v>
-      </c>
-      <c r="E44" s="9">
-        <v>39425</v>
+        <v>12</v>
+      </c>
+      <c r="E44" s="8">
+        <v>39857</v>
       </c>
       <c r="F44" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>11</v>
@@ -2828,22 +2912,40 @@
       <c r="J44" s="5">
         <v>1</v>
       </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.15" hidden="1" spans="1:12">
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2</v>
+      </c>
+      <c r="P44" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1</v>
+      </c>
+      <c r="R44" s="1">
+        <v>20</v>
+      </c>
+      <c r="S44" s="1">
+        <v>1</v>
+      </c>
+      <c r="T44" s="1">
+        <v>2</v>
+      </c>
+      <c r="U44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="15.15" spans="1:12">
       <c r="A45" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D45" s="7">
         <v>14</v>
@@ -2855,7 +2957,7 @@
         <v>9</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -2864,21 +2966,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.15" hidden="1" spans="1:12">
+    <row r="46" ht="15.15" spans="1:10">
       <c r="A46" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D46" s="7">
         <v>12</v>
       </c>
-      <c r="E46" s="9">
-        <v>40031</v>
+      <c r="E46" s="8">
+        <v>39702</v>
       </c>
       <c r="F46" s="7">
         <v>6</v>
@@ -2886,22 +2988,21 @@
       <c r="G46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="5"/>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.15" hidden="1" spans="1:12">
+    </row>
+    <row r="47" ht="15.15" spans="1:12">
       <c r="A47" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D47" s="7">
         <v>14</v>
@@ -2913,7 +3014,7 @@
         <v>9</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -2922,44 +3023,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.15" hidden="1" spans="1:12">
+    <row r="48" ht="15.15" spans="1:21">
       <c r="A48" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="D48" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" s="8">
-        <v>40014</v>
+        <v>39462</v>
       </c>
       <c r="F48" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
       <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.15" hidden="1" spans="1:12">
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>2</v>
+      </c>
+      <c r="P48" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1</v>
+      </c>
+      <c r="R48" s="1">
+        <v>15</v>
+      </c>
+      <c r="S48" s="1">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1">
+        <v>4</v>
+      </c>
+      <c r="U48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="15.15" spans="1:12">
       <c r="A49" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D49" s="7">
         <v>12</v>
@@ -2971,7 +3097,7 @@
         <v>6</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -2980,21 +3106,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.15" spans="1:13">
+    <row r="50" ht="15.15" spans="1:10">
       <c r="A50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="D50" s="7">
         <v>12</v>
       </c>
-      <c r="E50" s="8">
-        <v>39810</v>
+      <c r="E50" s="9">
+        <v>39976</v>
       </c>
       <c r="F50" s="7">
         <v>6</v>
@@ -3002,29 +3128,19 @@
       <c r="G50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="5">
-        <v>1</v>
-      </c>
+      <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="5">
-        <v>1</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0</v>
-      </c>
-      <c r="M50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.15" hidden="1" spans="1:12">
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" ht="15.15" spans="1:12">
       <c r="A51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="D51" s="7">
         <v>10</v>
@@ -3036,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -3045,15 +3161,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="15.15" hidden="1" spans="1:12">
+    <row r="52" ht="15.15" spans="1:12">
       <c r="A52" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="D52" s="7">
         <v>11</v>
@@ -3065,7 +3181,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -3074,15 +3190,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="15.15" hidden="1" spans="1:12">
+    <row r="53" ht="15.15" spans="1:12">
       <c r="A53" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D53" s="7">
         <v>11</v>
@@ -3101,15 +3217,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="15.15" hidden="1" spans="1:12">
+    <row r="54" ht="15.15" spans="1:12">
       <c r="A54" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D54" s="7">
         <v>13</v>
@@ -3121,7 +3237,7 @@
         <v>7</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -3130,24 +3246,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.15" hidden="1" spans="1:12">
+    <row r="55" ht="15.15" spans="1:20">
       <c r="A55" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D55" s="7">
-        <v>12</v>
-      </c>
-      <c r="E55" s="9">
-        <v>39838</v>
+        <v>10</v>
+      </c>
+      <c r="E55" s="8">
+        <v>40690</v>
       </c>
       <c r="F55" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>11</v>
@@ -3156,17 +3272,31 @@
         <v>1</v>
       </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="L55" s="1">
+      <c r="J55" s="5">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>1</v>
+      </c>
+      <c r="R55" s="1">
+        <v>4</v>
+      </c>
+      <c r="S55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" ht="15.15" hidden="1" spans="1:12">
+      <c r="T55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" ht="15.15" spans="1:12">
       <c r="A56" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>137</v>
@@ -3181,7 +3311,7 @@
         <v>6</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -3190,36 +3320,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.15" hidden="1" spans="1:12">
+    <row r="57" ht="15.15" spans="1:21">
       <c r="A57" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>139</v>
       </c>
       <c r="D57" s="7">
-        <v>13</v>
-      </c>
-      <c r="E57" s="9">
-        <v>39550</v>
+        <v>11</v>
+      </c>
+      <c r="E57" s="8">
+        <v>40129</v>
       </c>
       <c r="F57" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="5"/>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
       <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
       <c r="L57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.15" spans="1:13">
+        <v>-1</v>
+      </c>
+      <c r="M57" s="1">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>1</v>
+      </c>
+      <c r="R57" s="1">
+        <v>9</v>
+      </c>
+      <c r="S57" s="1">
+        <v>1</v>
+      </c>
+      <c r="T57" s="1">
+        <v>1</v>
+      </c>
+      <c r="U57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" ht="15.15" spans="1:20">
       <c r="A58" s="5" t="s">
         <v>140</v>
       </c>
@@ -3227,16 +3382,16 @@
         <v>141</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D58" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" s="8">
-        <v>39529</v>
+        <v>39916</v>
       </c>
       <c r="F58" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>11</v>
@@ -3248,31 +3403,37 @@
       <c r="J58" s="5">
         <v>1</v>
       </c>
-      <c r="K58" s="1">
-        <v>1</v>
-      </c>
-      <c r="L58" s="1">
-        <v>0</v>
-      </c>
-      <c r="M58" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" ht="15.15" spans="1:13">
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>1</v>
+      </c>
+      <c r="R58" s="1">
+        <v>17</v>
+      </c>
+      <c r="S58" s="1">
+        <v>3</v>
+      </c>
+      <c r="T58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="15.15" spans="1:20">
       <c r="A59" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="D59" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="8">
-        <v>40129</v>
+        <v>40499</v>
       </c>
       <c r="F59" s="7">
         <v>5</v>
@@ -3280,29 +3441,36 @@
       <c r="G59" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="5">
-        <v>1</v>
-      </c>
+      <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5">
         <v>1</v>
       </c>
-      <c r="L59" s="1">
-        <v>-1</v>
-      </c>
-      <c r="M59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" ht="15.15" hidden="1" spans="1:12">
+      <c r="N59" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>1</v>
+      </c>
+      <c r="R59" s="1">
+        <v>4</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.15" spans="1:12">
       <c r="A60" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D60" s="5">
         <v>12</v>
@@ -3319,24 +3487,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.15" spans="1:13">
+    <row r="61" ht="15.15" spans="1:20">
       <c r="A61" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="C61" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="5">
-        <v>12</v>
-      </c>
-      <c r="E61" s="11">
-        <v>39987</v>
-      </c>
-      <c r="F61" s="5">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="D61" s="7">
+        <v>13</v>
+      </c>
+      <c r="E61" s="9">
+        <v>39425</v>
+      </c>
+      <c r="F61" s="7">
+        <v>7</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>11</v>
@@ -3344,16 +3512,20 @@
       <c r="H61" s="5">
         <v>1</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="5"/>
+      <c r="J61" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>1</v>
+      </c>
+      <c r="R61" s="1">
+        <v>18</v>
+      </c>
+      <c r="S61" s="1">
         <v>2</v>
       </c>
-      <c r="J61" s="5">
-        <v>1</v>
-      </c>
-      <c r="L61" s="1">
-        <v>0</v>
-      </c>
-      <c r="M61" s="1">
+      <c r="T61" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4426,16 +4598,11 @@
       <c r="J150" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M61">
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="N1:R2">
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:AE62">
-    <sortCondition ref="A2:A62"/>
+  <sortState ref="A2:O61">
+    <sortCondition ref="B2:B61"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$1:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$61</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -465,12 +465,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -495,17 +495,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,30 +540,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -556,24 +547,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,21 +559,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,6 +579,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -626,14 +617,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,13 +648,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +690,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +738,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,37 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,43 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,25 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,7 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,21 +857,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -886,21 +871,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,12 +924,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,139 +968,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,13 +1113,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1450,15 +1450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:U150"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F45" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T60" sqref="T60"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1479,10 +1479,11 @@
     <col min="17" max="17" width="10.8888888888889" style="1"/>
     <col min="18" max="18" width="3.66666666666667" style="1" customWidth="1"/>
     <col min="19" max="21" width="2.66666666666667" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88888888888889" style="1"/>
+    <col min="22" max="22" width="10.8888888888889" style="1"/>
+    <col min="23" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:17">
+    <row r="1" ht="15.15" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1518,6 +1519,9 @@
       </c>
       <c r="Q1" s="12">
         <v>44485</v>
+      </c>
+      <c r="V1" s="12">
+        <v>44492</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:20">
@@ -1599,7 +1603,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="15.15" spans="1:12">
+    <row r="4" ht="15.15" hidden="1" spans="1:12">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15.15" spans="1:12">
+    <row r="7" ht="15.15" hidden="1" spans="1:12">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1749,7 +1753,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="15.15" spans="1:20">
+    <row r="9" ht="15.15" spans="1:23">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1791,8 +1795,14 @@
       <c r="T9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" ht="15.15" spans="1:12">
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" hidden="1" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -1849,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="15.15" spans="1:12">
+    <row r="12" ht="15.15" hidden="1" spans="1:12">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -1878,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.15" spans="1:12">
+    <row r="13" ht="15.15" hidden="1" spans="1:12">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -1907,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.15" spans="1:12">
+    <row r="14" ht="15.15" hidden="1" spans="1:12">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -1936,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15.15" spans="1:12">
+    <row r="15" ht="15.15" hidden="1" spans="1:12">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1965,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15.15" spans="1:12">
+    <row r="16" ht="15.15" hidden="1" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -1994,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15.15" spans="1:12">
+    <row r="17" ht="15.15" hidden="1" spans="1:12">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -2023,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15.15" spans="1:12">
+    <row r="18" ht="15.15" hidden="1" spans="1:12">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -2052,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.15" spans="1:20">
+    <row r="19" ht="15.15" spans="1:23">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2089,6 +2099,12 @@
       <c r="T19" s="1">
         <v>2</v>
       </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="20" ht="15.15" spans="1:20">
       <c r="A20" s="5" t="s">
@@ -2132,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15.15" spans="1:12">
+    <row r="21" ht="15.15" hidden="1" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -2187,7 +2203,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" ht="15.15" spans="1:20">
+    <row r="23" ht="15.15" spans="1:23">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -2239,8 +2255,14 @@
       <c r="T23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" ht="15.15" spans="1:12">
+      <c r="V23" s="1">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -2299,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="15.15" spans="1:12">
+    <row r="26" ht="15.15" hidden="1" spans="1:12">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -2328,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.15" spans="1:12">
+    <row r="27" ht="15.15" hidden="1" spans="1:12">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -2383,7 +2405,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" ht="15.15" spans="1:12">
+    <row r="29" ht="15.15" hidden="1" spans="1:12">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
@@ -2412,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.15" spans="1:10">
+    <row r="30" ht="15.15" spans="1:23">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -2439,8 +2461,14 @@
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-    </row>
-    <row r="31" ht="15.15" spans="1:14">
+      <c r="V30" s="1">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:23">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -2473,8 +2501,14 @@
       <c r="N31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" ht="15.15" spans="1:12">
+      <c r="V31" s="1">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:12">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -2503,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.15" spans="1:12">
+    <row r="33" hidden="1" spans="1:12">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -2530,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.15" spans="1:12">
+    <row r="34" hidden="1" spans="1:12">
       <c r="A34" s="5" t="s">
         <v>83</v>
       </c>
@@ -2559,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.15" spans="1:20">
+    <row r="35" ht="15.15" spans="1:23">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -2606,8 +2640,14 @@
       <c r="T35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" ht="15.15" spans="1:12">
+      <c r="V35" s="1">
+        <v>1</v>
+      </c>
+      <c r="W35" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:12">
       <c r="A36" s="5" t="s">
         <v>89</v>
       </c>
@@ -2636,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15.15" spans="1:12">
+    <row r="37" hidden="1" spans="1:12">
       <c r="A37" s="5" t="s">
         <v>92</v>
       </c>
@@ -2665,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15.15" spans="1:12">
+    <row r="38" hidden="1" spans="1:12">
       <c r="A38" s="5" t="s">
         <v>95</v>
       </c>
@@ -2694,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.15" spans="1:20">
+    <row r="39" ht="15.15" spans="1:23">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
@@ -2744,8 +2784,14 @@
       <c r="T39" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" ht="15.15" spans="1:12">
+      <c r="V39" s="1">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:12">
       <c r="A40" s="5" t="s">
         <v>100</v>
       </c>
@@ -2774,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15.15" spans="1:12">
+    <row r="41" hidden="1" spans="1:12">
       <c r="A41" s="5" t="s">
         <v>102</v>
       </c>
@@ -2803,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.15" spans="1:20">
+    <row r="42" ht="15.15" spans="1:23">
       <c r="A42" s="5" t="s">
         <v>103</v>
       </c>
@@ -2842,6 +2888,12 @@
       <c r="T42" s="1">
         <v>2</v>
       </c>
+      <c r="V42" s="1">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1">
+        <v>-10</v>
+      </c>
     </row>
     <row r="43" ht="15.15" spans="1:20">
       <c r="A43" s="5" t="s">
@@ -2883,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="15.15" spans="1:21">
+    <row r="44" ht="15.15" spans="1:23">
       <c r="A44" s="5" t="s">
         <v>107</v>
       </c>
@@ -2936,8 +2988,14 @@
       <c r="U44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" ht="15.15" spans="1:12">
+      <c r="V44" s="1">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="1:12">
       <c r="A45" s="5" t="s">
         <v>110</v>
       </c>
@@ -2966,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.15" spans="1:10">
+    <row r="46" ht="15.15" spans="1:23">
       <c r="A46" s="5" t="s">
         <v>112</v>
       </c>
@@ -2993,8 +3051,14 @@
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-    </row>
-    <row r="47" ht="15.15" spans="1:12">
+      <c r="V46" s="1">
+        <v>1</v>
+      </c>
+      <c r="W46" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:12">
       <c r="A47" s="5" t="s">
         <v>115</v>
       </c>
@@ -3023,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.15" spans="1:21">
+    <row r="48" ht="15.15" spans="1:23">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -3076,8 +3140,14 @@
       <c r="U48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" ht="15.15" spans="1:12">
+      <c r="V48" s="1">
+        <v>1</v>
+      </c>
+      <c r="W48" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="49" ht="15.15" hidden="1" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -3132,7 +3202,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" ht="15.15" spans="1:12">
+    <row r="51" ht="15.15" hidden="1" spans="1:12">
       <c r="A51" s="5" t="s">
         <v>124</v>
       </c>
@@ -3161,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="15.15" spans="1:12">
+    <row r="52" ht="15.15" hidden="1" spans="1:12">
       <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
@@ -3190,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="15.15" spans="1:12">
+    <row r="53" ht="15.15" hidden="1" spans="1:12">
       <c r="A53" s="5" t="s">
         <v>127</v>
       </c>
@@ -3217,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="15.15" spans="1:12">
+    <row r="54" ht="15.15" hidden="1" spans="1:12">
       <c r="A54" s="5" t="s">
         <v>131</v>
       </c>
@@ -3246,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.15" spans="1:20">
+    <row r="55" ht="15.15" spans="1:23">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -3290,8 +3360,14 @@
       <c r="T55" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" ht="15.15" spans="1:12">
+      <c r="V55" s="1">
+        <v>1</v>
+      </c>
+      <c r="W55" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="1:12">
       <c r="A56" s="5" t="s">
         <v>136</v>
       </c>
@@ -3374,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="15.15" spans="1:20">
+    <row r="58" ht="15.15" spans="1:23">
       <c r="A58" s="5" t="s">
         <v>140</v>
       </c>
@@ -3417,6 +3493,12 @@
       </c>
       <c r="T58" s="1">
         <v>1</v>
+      </c>
+      <c r="V58" s="1">
+        <v>1</v>
+      </c>
+      <c r="W58" s="1">
+        <v>-10</v>
       </c>
     </row>
     <row r="59" ht="15.15" spans="1:20">
@@ -3462,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15.15" spans="1:12">
+    <row r="60" ht="15.15" hidden="1" spans="1:12">
       <c r="A60" s="5" t="s">
         <v>144</v>
       </c>
@@ -3487,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.15" spans="1:20">
+    <row r="61" ht="15.15" spans="1:23">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -3527,6 +3609,12 @@
       </c>
       <c r="T61" s="1">
         <v>0</v>
+      </c>
+      <c r="V61" s="1">
+        <v>1</v>
+      </c>
+      <c r="W61" s="1">
+        <v>-10</v>
       </c>
     </row>
     <row r="62" ht="15.15" spans="1:10">
@@ -4598,7 +4686,12 @@
       <c r="J150" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="N1:R2">
+  <autoFilter ref="A1:G61">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="equal" val="ВМ"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:O61">

--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="148">
   <si>
     <t>Family_ch_i</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>Ярослава</t>
+  </si>
+  <si>
+    <t>Мелия</t>
   </si>
 </sst>
 </file>
@@ -465,12 +468,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd\.mmm"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="dd\.mmm"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -496,33 +499,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,6 +527,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -547,8 +535,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,9 +551,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,42 +597,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,9 +627,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,13 +651,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,7 +741,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,109 +801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,37 +819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,20 +860,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,7 +879,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,26 +916,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,12 +946,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,7 +971,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,130 +980,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,7 +1122,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1451,14 +1454,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W150"/>
+  <dimension ref="A1:X150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U31" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="W62" sqref="W62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1469,7 +1472,9 @@
     <col min="4" max="4" width="7.88888888888889" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.8888888888889" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.88888888888889" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.88888888888889" style="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="1"/>
+    <col min="8" max="8" width="7.22222222222222" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88888888888889" style="1"/>
     <col min="10" max="10" width="10.8888888888889" style="1"/>
     <col min="11" max="11" width="2.66666666666667" style="1" customWidth="1"/>
     <col min="12" max="12" width="3.66666666666667" style="1" customWidth="1"/>
@@ -1480,10 +1485,12 @@
     <col min="18" max="18" width="3.66666666666667" style="1" customWidth="1"/>
     <col min="19" max="21" width="2.66666666666667" style="1" customWidth="1"/>
     <col min="22" max="22" width="10.8888888888889" style="1"/>
-    <col min="23" max="16384" width="8.88888888888889" style="1"/>
+    <col min="23" max="23" width="9.74074074074074" style="1" customWidth="1"/>
+    <col min="24" max="24" width="2.66666666666667" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:22">
+    <row r="1" ht="15.15" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1523,8 +1530,11 @@
       <c r="V1" s="12">
         <v>44492</v>
       </c>
-    </row>
-    <row r="2" ht="15.15" spans="1:20">
+      <c r="W1" s="12">
+        <v>44512</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:23">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1576,8 +1586,11 @@
       <c r="T2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="15.15" spans="1:10">
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1596,9 +1609,7 @@
       <c r="F3" s="7">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -1632,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:10">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1651,14 +1662,12 @@
       <c r="F5" s="7">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="15.15" spans="1:20">
+    <row r="6" ht="15.15" spans="1:23">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1696,6 +1705,9 @@
       </c>
       <c r="T6" s="1">
         <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="15.15" hidden="1" spans="1:12">
@@ -1727,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:10">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1746,9 +1758,7 @@
       <c r="F8" s="7">
         <v>6</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1799,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="1">
-        <v>-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15.15" hidden="1" spans="1:12">
@@ -1831,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:10">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -2062,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.15" spans="1:23">
+    <row r="19" spans="1:22">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2102,11 +2112,8 @@
       <c r="V19" s="1">
         <v>1</v>
       </c>
-      <c r="W19" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20" ht="15.15" spans="1:20">
+    </row>
+    <row r="20" ht="15.15" spans="1:23">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -2146,6 +2153,9 @@
       </c>
       <c r="T20" s="1">
         <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="15.15" hidden="1" spans="1:12">
@@ -2177,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.15" spans="1:10">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -2196,14 +2206,12 @@
       <c r="F22" s="7">
         <v>7</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" ht="15.15" spans="1:23">
+    <row r="23" ht="15.15" spans="1:24">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -2259,10 +2267,13 @@
         <v>1</v>
       </c>
       <c r="W23" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" hidden="1" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -2291,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:10">
+    <row r="25" ht="15.15" spans="1:23">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -2318,6 +2329,9 @@
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2379,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.15" spans="1:10">
+    <row r="28" spans="1:10">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -2398,9 +2412,7 @@
       <c r="F28" s="7">
         <v>6</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -2434,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.15" spans="1:23">
+    <row r="30" ht="15.15" spans="1:24">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -2465,10 +2477,13 @@
         <v>1</v>
       </c>
       <c r="W30" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="31" ht="15.15" spans="1:23">
+        <v>1</v>
+      </c>
+      <c r="X30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:24">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -2505,10 +2520,13 @@
         <v>1</v>
       </c>
       <c r="W31" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="32" hidden="1" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="15.15" hidden="1" spans="1:12">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:12">
+    <row r="33" ht="15.15" hidden="1" spans="1:12">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -2564,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:12">
+    <row r="34" ht="15.15" hidden="1" spans="1:12">
       <c r="A34" s="5" t="s">
         <v>83</v>
       </c>
@@ -2593,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.15" spans="1:23">
+    <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -2643,11 +2661,8 @@
       <c r="V35" s="1">
         <v>1</v>
       </c>
-      <c r="W35" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" spans="1:12">
+    </row>
+    <row r="36" ht="15.15" hidden="1" spans="1:12">
       <c r="A36" s="5" t="s">
         <v>89</v>
       </c>
@@ -2676,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:12">
+    <row r="37" ht="15.15" hidden="1" spans="1:12">
       <c r="A37" s="5" t="s">
         <v>92</v>
       </c>
@@ -2705,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:12">
+    <row r="38" ht="15.15" hidden="1" spans="1:12">
       <c r="A38" s="5" t="s">
         <v>95</v>
       </c>
@@ -2788,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="W39" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="15.15" hidden="1" spans="1:12">
       <c r="A40" s="5" t="s">
         <v>100</v>
       </c>
@@ -2820,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:12">
+    <row r="41" ht="15.15" hidden="1" spans="1:12">
       <c r="A41" s="5" t="s">
         <v>102</v>
       </c>
@@ -2892,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="W42" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="43" ht="15.15" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="15.15" spans="1:23">
       <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
@@ -2934,6 +2949,9 @@
       <c r="T43" s="1">
         <v>1</v>
       </c>
+      <c r="W43" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" ht="15.15" spans="1:23">
       <c r="A44" s="5" t="s">
@@ -2992,10 +3010,10 @@
         <v>1</v>
       </c>
       <c r="W44" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="15.15" hidden="1" spans="1:12">
       <c r="A45" s="5" t="s">
         <v>110</v>
       </c>
@@ -3024,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.15" spans="1:23">
+    <row r="46" spans="1:22">
       <c r="A46" s="5" t="s">
         <v>112</v>
       </c>
@@ -3054,11 +3072,8 @@
       <c r="V46" s="1">
         <v>1</v>
       </c>
-      <c r="W46" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="47" hidden="1" spans="1:12">
+    </row>
+    <row r="47" ht="15.15" hidden="1" spans="1:12">
       <c r="A47" s="5" t="s">
         <v>115</v>
       </c>
@@ -3144,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="W48" s="1">
-        <v>-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="15.15" hidden="1" spans="1:12">
@@ -3176,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.15" spans="1:10">
+    <row r="50" spans="1:10">
       <c r="A50" s="5" t="s">
         <v>121</v>
       </c>
@@ -3195,9 +3210,7 @@
       <c r="F50" s="7">
         <v>6</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -3364,10 +3377,10 @@
         <v>1</v>
       </c>
       <c r="W55" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="56" hidden="1" spans="1:12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="15.15" hidden="1" spans="1:12">
       <c r="A56" s="5" t="s">
         <v>136</v>
       </c>
@@ -3396,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.15" spans="1:21">
+    <row r="57" ht="15.15" spans="1:23">
       <c r="A57" s="5" t="s">
         <v>138</v>
       </c>
@@ -3449,8 +3462,11 @@
       <c r="U57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" ht="15.15" spans="1:23">
+      <c r="W57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" ht="15.15" spans="1:24">
       <c r="A58" s="5" t="s">
         <v>140</v>
       </c>
@@ -3498,10 +3514,13 @@
         <v>1</v>
       </c>
       <c r="W58" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="59" ht="15.15" spans="1:20">
+        <v>1</v>
+      </c>
+      <c r="X58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" ht="15.15" spans="1:23">
       <c r="A59" s="5" t="s">
         <v>142</v>
       </c>
@@ -3542,6 +3561,9 @@
       </c>
       <c r="T59" s="1">
         <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="15.15" hidden="1" spans="1:12">
@@ -3614,12 +3636,16 @@
         <v>1</v>
       </c>
       <c r="W61" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="62" ht="15.15" spans="1:10">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="15.15" spans="1:23">
+      <c r="A62" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3628,8 +3654,11 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
-    </row>
-    <row r="63" ht="15.15" spans="1:10">
+      <c r="W62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3641,7 +3670,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" ht="15.15" spans="1:10">
+    <row r="64" spans="1:10">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3653,7 +3682,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" ht="15.15" spans="1:10">
+    <row r="65" spans="1:10">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3665,7 +3694,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" ht="15.15" spans="1:10">
+    <row r="66" spans="1:10">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3677,7 +3706,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" ht="15.15" spans="1:10">
+    <row r="67" spans="1:10">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3689,7 +3718,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" ht="15.15" spans="1:10">
+    <row r="68" spans="1:10">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3701,7 +3730,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" ht="15.15" spans="1:10">
+    <row r="69" spans="1:10">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3713,7 +3742,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" ht="15.15" spans="1:10">
+    <row r="70" spans="1:10">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3725,7 +3754,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" ht="15.15" spans="1:10">
+    <row r="71" spans="1:10">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3737,7 +3766,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" ht="15.15" spans="1:10">
+    <row r="72" spans="1:10">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3749,7 +3778,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" ht="15.15" spans="1:10">
+    <row r="73" spans="1:10">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3761,7 +3790,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" ht="15.15" spans="1:10">
+    <row r="74" spans="1:10">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3773,7 +3802,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" ht="15.15" spans="1:10">
+    <row r="75" spans="1:10">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3785,7 +3814,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" ht="15.15" spans="1:10">
+    <row r="76" spans="1:10">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3797,7 +3826,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" ht="15.15" spans="1:10">
+    <row r="77" spans="1:10">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3809,7 +3838,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" ht="15.15" spans="1:10">
+    <row r="78" spans="1:10">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3821,7 +3850,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" ht="15.15" spans="1:10">
+    <row r="79" spans="1:10">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3833,7 +3862,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" ht="15.15" spans="1:10">
+    <row r="80" spans="1:10">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3845,7 +3874,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" ht="15.15" spans="1:10">
+    <row r="81" spans="1:10">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3857,7 +3886,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" ht="15.15" spans="1:10">
+    <row r="82" spans="1:10">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3869,7 +3898,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" ht="15.15" spans="1:10">
+    <row r="83" spans="1:10">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3881,7 +3910,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" ht="15.15" spans="1:10">
+    <row r="84" spans="1:10">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3893,7 +3922,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" ht="15.15" spans="1:10">
+    <row r="85" spans="1:10">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3905,7 +3934,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" ht="15.15" spans="1:10">
+    <row r="86" spans="1:10">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3917,7 +3946,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" ht="15.15" spans="1:10">
+    <row r="87" spans="1:10">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3929,7 +3958,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" ht="15.15" spans="1:10">
+    <row r="88" spans="1:10">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3941,7 +3970,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" ht="15.15" spans="1:10">
+    <row r="89" spans="1:10">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3953,7 +3982,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" ht="15.15" spans="1:10">
+    <row r="90" spans="1:10">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3965,7 +3994,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" ht="15.15" spans="1:10">
+    <row r="91" spans="1:10">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3977,7 +4006,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" ht="15.15" spans="1:10">
+    <row r="92" spans="1:10">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3989,7 +4018,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" ht="15.15" spans="1:10">
+    <row r="93" spans="1:10">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -4001,7 +4030,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" ht="15.15" spans="1:10">
+    <row r="94" spans="1:10">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4013,7 +4042,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" ht="15.15" spans="1:10">
+    <row r="95" spans="1:10">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4025,7 +4054,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" ht="15.15" spans="1:10">
+    <row r="96" spans="1:10">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4037,7 +4066,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" ht="15.15" spans="1:10">
+    <row r="97" spans="1:10">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4049,7 +4078,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" ht="15.15" spans="1:10">
+    <row r="98" spans="1:10">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4061,7 +4090,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" ht="15.15" spans="1:10">
+    <row r="99" spans="1:10">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4073,7 +4102,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" ht="15.15" spans="1:10">
+    <row r="100" spans="1:10">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4085,7 +4114,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" ht="15.15" spans="1:10">
+    <row r="101" spans="1:10">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4097,7 +4126,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" ht="15.15" spans="1:10">
+    <row r="102" spans="1:10">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4109,7 +4138,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" ht="15.15" spans="1:10">
+    <row r="103" spans="1:10">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4121,7 +4150,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" ht="15.15" spans="1:10">
+    <row r="104" spans="1:10">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4133,7 +4162,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" ht="15.15" spans="1:10">
+    <row r="105" spans="1:10">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4145,7 +4174,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" ht="15.15" spans="1:10">
+    <row r="106" spans="1:10">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4157,7 +4186,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" ht="15.15" spans="1:10">
+    <row r="107" spans="1:10">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4169,7 +4198,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" ht="15.15" spans="1:10">
+    <row r="108" spans="1:10">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4181,7 +4210,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" ht="15.15" spans="1:10">
+    <row r="109" spans="1:10">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4193,7 +4222,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" ht="15.15" spans="1:10">
+    <row r="110" spans="1:10">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4205,7 +4234,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" ht="15.15" spans="1:10">
+    <row r="111" spans="1:10">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4217,7 +4246,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" ht="15.15" spans="1:10">
+    <row r="112" spans="1:10">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4229,7 +4258,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" ht="15.15" spans="1:10">
+    <row r="113" spans="1:10">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4241,7 +4270,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" ht="15.15" spans="1:10">
+    <row r="114" spans="1:10">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4253,7 +4282,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" ht="15.15" spans="1:10">
+    <row r="115" spans="1:10">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4265,7 +4294,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" ht="15.15" spans="1:10">
+    <row r="116" spans="1:10">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4277,7 +4306,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" ht="15.15" spans="1:10">
+    <row r="117" spans="1:10">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4289,7 +4318,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" ht="15.15" spans="1:10">
+    <row r="118" spans="1:10">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4301,7 +4330,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" ht="15.15" spans="1:10">
+    <row r="119" spans="1:10">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4313,7 +4342,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" ht="15.15" spans="1:10">
+    <row r="120" spans="1:10">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4325,7 +4354,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" ht="15.15" spans="1:10">
+    <row r="121" spans="1:10">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4337,7 +4366,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" ht="15.15" spans="1:10">
+    <row r="122" spans="1:10">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4349,7 +4378,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" ht="15.15" spans="1:10">
+    <row r="123" spans="1:10">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4361,7 +4390,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" ht="15.15" spans="1:10">
+    <row r="124" spans="1:10">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4373,7 +4402,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" ht="15.15" spans="1:10">
+    <row r="125" spans="1:10">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4385,7 +4414,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" ht="15.15" spans="1:10">
+    <row r="126" spans="1:10">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4397,7 +4426,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" ht="15.15" spans="1:10">
+    <row r="127" spans="1:10">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4409,7 +4438,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" ht="15.15" spans="1:10">
+    <row r="128" spans="1:10">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4421,7 +4450,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" ht="15.15" spans="1:10">
+    <row r="129" spans="1:10">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4433,7 +4462,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" ht="15.15" spans="1:10">
+    <row r="130" spans="1:10">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4445,7 +4474,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" ht="15.15" spans="1:10">
+    <row r="131" spans="1:10">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4457,7 +4486,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" ht="15.15" spans="1:10">
+    <row r="132" spans="1:10">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4469,7 +4498,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" ht="15.15" spans="1:10">
+    <row r="133" spans="1:10">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4481,7 +4510,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" ht="15.15" spans="1:10">
+    <row r="134" spans="1:10">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4493,7 +4522,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" ht="15.15" spans="1:10">
+    <row r="135" spans="1:10">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4505,7 +4534,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" ht="15.15" spans="1:10">
+    <row r="136" spans="1:10">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4517,7 +4546,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" ht="15.15" spans="1:10">
+    <row r="137" spans="1:10">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4529,7 +4558,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" ht="15.15" spans="1:10">
+    <row r="138" spans="1:10">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4541,7 +4570,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" ht="15.15" spans="1:10">
+    <row r="139" spans="1:10">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4553,7 +4582,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" ht="15.15" spans="1:10">
+    <row r="140" spans="1:10">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4565,7 +4594,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" ht="15.15" spans="1:10">
+    <row r="141" spans="1:10">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4577,7 +4606,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" ht="15.15" spans="1:10">
+    <row r="142" spans="1:10">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4589,7 +4618,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" ht="15.15" spans="1:10">
+    <row r="143" spans="1:10">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4601,7 +4630,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" ht="15.15" spans="1:10">
+    <row r="144" spans="1:10">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4613,7 +4642,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" ht="15.15" spans="1:10">
+    <row r="145" spans="1:10">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4625,7 +4654,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" ht="15.15" spans="1:10">
+    <row r="146" spans="1:10">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4637,7 +4666,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" ht="15.15" spans="1:10">
+    <row r="147" spans="1:10">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4649,7 +4678,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" ht="15.15" spans="1:10">
+    <row r="148" spans="1:10">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4661,7 +4690,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" ht="15.15" spans="1:10">
+    <row r="149" spans="1:10">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4673,7 +4702,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" ht="15.15" spans="1:10">
+    <row r="150" spans="1:10">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>

--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$62</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -468,12 +468,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="dd\.mmm"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -498,8 +498,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,8 +543,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,17 +558,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,14 +570,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,6 +590,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -584,44 +606,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,7 +621,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,7 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +669,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +777,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,61 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,85 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +860,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -871,6 +880,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,35 +923,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,11 +951,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,136 +974,136 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,13 +1116,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,14 +1454,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:X150"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U31" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R23" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W62" sqref="W62"/>
+      <selection pane="bottomRight" activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1487,10 +1487,12 @@
     <col min="22" max="22" width="10.8888888888889" style="1"/>
     <col min="23" max="23" width="9.74074074074074" style="1" customWidth="1"/>
     <col min="24" max="24" width="2.66666666666667" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88888888888889" style="1"/>
+    <col min="25" max="25" width="10.8888888888889" style="1"/>
+    <col min="26" max="28" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1533,8 +1535,11 @@
       <c r="W1" s="12">
         <v>44512</v>
       </c>
-    </row>
-    <row r="2" ht="15.15" spans="1:23">
+      <c r="Y1" s="12">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:28">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1589,8 +1594,20 @@
       <c r="W2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1643,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" ht="15.15" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1739,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" ht="15.15" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1763,7 +1780,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="15.15" spans="1:23">
+    <row r="9" ht="15.15" spans="1:28">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1810,6 +1827,18 @@
       </c>
       <c r="W9" s="1">
         <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" ht="15.15" hidden="1" spans="1:12">
@@ -1841,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" ht="15.15" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -2072,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" ht="15.15" spans="1:22">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2113,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="15.15" spans="1:23">
+    <row r="20" ht="15.15" spans="1:28">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -2157,8 +2186,20 @@
       <c r="W20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" ht="15.15" hidden="1" spans="1:12">
+      <c r="Y20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -2187,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" ht="15.15" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -2211,7 +2252,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" ht="15.15" spans="1:24">
+    <row r="23" ht="15.15" spans="1:28">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -2272,8 +2313,20 @@
       <c r="X23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" ht="15.15" hidden="1" spans="1:12">
+      <c r="Y23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -2302,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:23">
+    <row r="25" ht="15.15" spans="1:28">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -2332,6 +2385,18 @@
         <v>1</v>
       </c>
       <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2393,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" ht="15.15" spans="1:10">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -2446,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.15" spans="1:24">
+    <row r="30" ht="15.15" spans="1:28">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -2481,6 +2546,18 @@
       </c>
       <c r="X30" s="1">
         <v>2</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>-1</v>
       </c>
     </row>
     <row r="31" ht="15.15" spans="1:24">
@@ -2611,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" ht="15.15" spans="1:28">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -2659,6 +2736,18 @@
         <v>0</v>
       </c>
       <c r="V35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2749,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.15" spans="1:23">
+    <row r="39" ht="15.15" spans="1:28">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
@@ -2805,8 +2894,20 @@
       <c r="W39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" ht="15.15" hidden="1" spans="1:12">
+      <c r="Y39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:12">
       <c r="A40" s="5" t="s">
         <v>100</v>
       </c>
@@ -2864,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.15" spans="1:23">
+    <row r="42" ht="15.15" spans="1:28">
       <c r="A42" s="5" t="s">
         <v>103</v>
       </c>
@@ -2909,8 +3010,20 @@
       <c r="W42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" ht="15.15" spans="1:23">
+      <c r="Y42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="15.15" spans="1:28">
       <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
@@ -2952,8 +3065,20 @@
       <c r="W43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" ht="15.15" spans="1:23">
+      <c r="Y43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="15.15" spans="1:28">
       <c r="A44" s="5" t="s">
         <v>107</v>
       </c>
@@ -3010,6 +3135,18 @@
         <v>1</v>
       </c>
       <c r="W44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3042,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" ht="15.15" spans="1:22">
       <c r="A46" s="5" t="s">
         <v>112</v>
       </c>
@@ -3102,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.15" spans="1:23">
+    <row r="48" ht="15.15" spans="1:28">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -3161,8 +3298,20 @@
       <c r="W48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" ht="15.15" hidden="1" spans="1:12">
+      <c r="Y48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -3191,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" ht="15.15" spans="1:10">
       <c r="A50" s="5" t="s">
         <v>121</v>
       </c>
@@ -3329,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.15" spans="1:23">
+    <row r="55" spans="1:25">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -3377,6 +3526,9 @@
         <v>1</v>
       </c>
       <c r="W55" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3520,7 +3672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" ht="15.15" spans="1:23">
+    <row r="59" ht="15.15" spans="1:28">
       <c r="A59" s="5" t="s">
         <v>142</v>
       </c>
@@ -3565,8 +3717,20 @@
       <c r="W59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" ht="15.15" hidden="1" spans="1:12">
+      <c r="Y59" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:12">
       <c r="A60" s="5" t="s">
         <v>144</v>
       </c>
@@ -3591,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.15" spans="1:23">
+    <row r="61" ht="15.15" spans="1:28">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -3638,8 +3802,20 @@
       <c r="W61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" ht="15.15" spans="1:23">
+      <c r="Y61" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="15.15" spans="1:28">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -3657,8 +3833,20 @@
       <c r="W62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="Y62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" ht="15.15" spans="1:10">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -3670,7 +3858,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" ht="15.15" spans="1:10">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3682,7 +3870,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" ht="15.15" spans="1:10">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3694,7 +3882,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" ht="15.15" spans="1:10">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3706,7 +3894,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" ht="15.15" spans="1:10">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3718,7 +3906,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" ht="15.15" spans="1:10">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3730,7 +3918,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" ht="15.15" spans="1:10">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3742,7 +3930,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" ht="15.15" spans="1:10">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3754,7 +3942,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" ht="15.15" spans="1:10">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3766,7 +3954,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" ht="15.15" spans="1:10">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3778,7 +3966,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" ht="15.15" spans="1:10">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3790,7 +3978,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" ht="15.15" spans="1:10">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3802,7 +3990,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" ht="15.15" spans="1:10">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3814,7 +4002,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" ht="15.15" spans="1:10">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3826,7 +4014,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" ht="15.15" spans="1:10">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3838,7 +4026,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" ht="15.15" spans="1:10">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3850,7 +4038,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" ht="15.15" spans="1:10">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3862,7 +4050,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" ht="15.15" spans="1:10">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3874,7 +4062,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" ht="15.15" spans="1:10">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3886,7 +4074,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" ht="15.15" spans="1:10">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3898,7 +4086,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" ht="15.15" spans="1:10">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3910,7 +4098,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" ht="15.15" spans="1:10">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3922,7 +4110,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" ht="15.15" spans="1:10">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3934,7 +4122,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" ht="15.15" spans="1:10">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3946,7 +4134,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" ht="15.15" spans="1:10">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3958,7 +4146,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" ht="15.15" spans="1:10">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3970,7 +4158,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" ht="15.15" spans="1:10">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3982,7 +4170,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" ht="15.15" spans="1:10">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3994,7 +4182,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" ht="15.15" spans="1:10">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -4006,7 +4194,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" ht="15.15" spans="1:10">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -4018,7 +4206,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" ht="15.15" spans="1:10">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -4030,7 +4218,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" ht="15.15" spans="1:10">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4042,7 +4230,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" ht="15.15" spans="1:10">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4054,7 +4242,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" ht="15.15" spans="1:10">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4066,7 +4254,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" ht="15.15" spans="1:10">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4078,7 +4266,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" ht="15.15" spans="1:10">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4090,7 +4278,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" ht="15.15" spans="1:10">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4102,7 +4290,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" ht="15.15" spans="1:10">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4114,7 +4302,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" ht="15.15" spans="1:10">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4126,7 +4314,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" ht="15.15" spans="1:10">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4138,7 +4326,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" ht="15.15" spans="1:10">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4150,7 +4338,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" ht="15.15" spans="1:10">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4162,7 +4350,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" ht="15.15" spans="1:10">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4174,7 +4362,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" ht="15.15" spans="1:10">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4186,7 +4374,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" ht="15.15" spans="1:10">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4198,7 +4386,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" ht="15.15" spans="1:10">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4210,7 +4398,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" ht="15.15" spans="1:10">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4222,7 +4410,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" ht="15.15" spans="1:10">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4234,7 +4422,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" ht="15.15" spans="1:10">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4246,7 +4434,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" ht="15.15" spans="1:10">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4258,7 +4446,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" ht="15.15" spans="1:10">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4270,7 +4458,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" ht="15.15" spans="1:10">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4282,7 +4470,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" ht="15.15" spans="1:10">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4294,7 +4482,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" ht="15.15" spans="1:10">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4306,7 +4494,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" ht="15.15" spans="1:10">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4318,7 +4506,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" ht="15.15" spans="1:10">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4330,7 +4518,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" ht="15.15" spans="1:10">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4342,7 +4530,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" ht="15.15" spans="1:10">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4354,7 +4542,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" ht="15.15" spans="1:10">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4366,7 +4554,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" ht="15.15" spans="1:10">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4378,7 +4566,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" ht="15.15" spans="1:10">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4390,7 +4578,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" ht="15.15" spans="1:10">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4402,7 +4590,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" ht="15.15" spans="1:10">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4414,7 +4602,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" ht="15.15" spans="1:10">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4426,7 +4614,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" ht="15.15" spans="1:10">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4438,7 +4626,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" ht="15.15" spans="1:10">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4450,7 +4638,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" ht="15.15" spans="1:10">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4462,7 +4650,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" ht="15.15" spans="1:10">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4474,7 +4662,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" ht="15.15" spans="1:10">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4486,7 +4674,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" ht="15.15" spans="1:10">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4498,7 +4686,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" ht="15.15" spans="1:10">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4510,7 +4698,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" ht="15.15" spans="1:10">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4522,7 +4710,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" ht="15.15" spans="1:10">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4534,7 +4722,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" ht="15.15" spans="1:10">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4546,7 +4734,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" ht="15.15" spans="1:10">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4558,7 +4746,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" ht="15.15" spans="1:10">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4570,7 +4758,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" ht="15.15" spans="1:10">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4582,7 +4770,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" ht="15.15" spans="1:10">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4594,7 +4782,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" ht="15.15" spans="1:10">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4606,7 +4794,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" ht="15.15" spans="1:10">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4618,7 +4806,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" ht="15.15" spans="1:10">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4630,7 +4818,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" ht="15.15" spans="1:10">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4642,7 +4830,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" ht="15.15" spans="1:10">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4654,7 +4842,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" ht="15.15" spans="1:10">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4666,7 +4854,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" ht="15.15" spans="1:10">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4678,7 +4866,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" ht="15.15" spans="1:10">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4690,7 +4878,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" ht="15.15" spans="1:10">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4702,7 +4890,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" ht="15.15" spans="1:10">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4715,7 +4903,7 @@
       <c r="J150" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G61">
+  <autoFilter ref="A1:G62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="equal" val="ВМ"/>

--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="148">
   <si>
     <t>Family_ch_i</t>
   </si>
@@ -468,12 +468,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="178" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -498,29 +498,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -535,11 +512,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,30 +568,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,22 +600,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,22 +630,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,13 +651,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,7 +681,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,13 +711,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +741,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,37 +789,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,37 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,43 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,15 +860,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -884,51 +875,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -952,6 +902,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -962,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,139 +971,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,13 +1116,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,14 +1454,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AB150"/>
+  <dimension ref="A1:AE150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R23" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC23" sqref="AC23"/>
+      <selection pane="bottomRight" activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1489,10 +1489,13 @@
     <col min="24" max="24" width="2.66666666666667" style="1" customWidth="1"/>
     <col min="25" max="25" width="10.8888888888889" style="1"/>
     <col min="26" max="28" width="3.66666666666667" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.88888888888889" style="1"/>
+    <col min="29" max="29" width="8.62962962962963" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.8888888888889" style="1"/>
+    <col min="31" max="31" width="2.66666666666667" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" ht="15.15" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1538,8 +1541,11 @@
       <c r="Y1" s="12">
         <v>44520</v>
       </c>
-    </row>
-    <row r="2" ht="15.15" spans="1:28">
+      <c r="AD1" s="12">
+        <v>44527</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:29">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1606,8 +1612,12 @@
       <c r="AB2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="15.15" spans="1:10">
+      <c r="AC2" s="1">
+        <f>SUBTOTAL(9,H2:AB2)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" hidden="1" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1660,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.15" spans="1:10">
+    <row r="5" ht="15.15" hidden="1" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1684,7 +1694,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="15.15" spans="1:23">
+    <row r="6" ht="15.15" spans="1:31">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1725,6 +1735,16 @@
       </c>
       <c r="W6" s="1">
         <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <f>SUBTOTAL(9,H6:AB6)</f>
+        <v>11</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="7" ht="15.15" hidden="1" spans="1:12">
@@ -1756,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15.15" spans="1:10">
+    <row r="8" ht="15.15" hidden="1" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1780,7 +1800,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="15.15" spans="1:28">
+    <row r="9" ht="15.15" spans="1:29">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1839,6 +1859,10 @@
       </c>
       <c r="AB9" s="1">
         <v>-1</v>
+      </c>
+      <c r="AC9" s="1">
+        <f>SUBTOTAL(9,H9:AB9)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="15.15" hidden="1" spans="1:12">
@@ -1870,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:10">
+    <row r="11" ht="15.15" spans="1:29">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1895,6 +1919,10 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="1">
+        <f>SUBTOTAL(9,H11:AB11)</f>
         <v>1</v>
       </c>
     </row>
@@ -2101,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.15" spans="1:22">
+    <row r="19" ht="15.15" spans="1:31">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2141,8 +2169,18 @@
       <c r="V19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" ht="15.15" spans="1:28">
+      <c r="AC19" s="1">
+        <f>SUBTOTAL(9,H19:AB19)</f>
+        <v>10</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" ht="15.15" spans="1:31">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -2198,8 +2236,18 @@
       <c r="AB20" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" hidden="1" spans="1:12">
+      <c r="AC20" s="1">
+        <f>SUBTOTAL(9,H20:AB20)</f>
+        <v>18</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" ht="15.15" hidden="1" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -2228,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.15" spans="1:10">
+    <row r="22" ht="15.15" hidden="1" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -2252,7 +2300,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" ht="15.15" spans="1:28">
+    <row r="23" ht="15.15" spans="1:31">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -2325,8 +2373,18 @@
       <c r="AB23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" hidden="1" spans="1:12">
+      <c r="AC23" s="1">
+        <f>SUBTOTAL(9,H23:AB23)</f>
+        <v>29</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" hidden="1" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -2355,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:28">
+    <row r="25" ht="15.15" spans="1:31">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -2398,6 +2456,16 @@
       </c>
       <c r="AB25" s="1">
         <v>1</v>
+      </c>
+      <c r="AC25" s="1">
+        <f>SUBTOTAL(9,H25:AB25)</f>
+        <v>5</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="26" ht="15.15" hidden="1" spans="1:12">
@@ -2458,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.15" spans="1:10">
+    <row r="28" ht="15.15" hidden="1" spans="1:10">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -2511,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.15" spans="1:28">
+    <row r="30" ht="15.15" spans="1:31">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -2559,8 +2627,18 @@
       <c r="AB30" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" ht="15.15" spans="1:24">
+      <c r="AC30" s="1">
+        <f>SUBTOTAL(9,H30:AB30)</f>
+        <v>5</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:31">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -2601,6 +2679,16 @@
       </c>
       <c r="X31" s="1">
         <v>2</v>
+      </c>
+      <c r="AC31" s="1">
+        <f>SUBTOTAL(9,H31:AB31)</f>
+        <v>7</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="32" ht="15.15" hidden="1" spans="1:12">
@@ -2688,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.15" spans="1:28">
+    <row r="35" ht="15.15" spans="1:31">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -2749,6 +2837,16 @@
       </c>
       <c r="AB35" s="1">
         <v>1</v>
+      </c>
+      <c r="AC35" s="1">
+        <f>SUBTOTAL(9,H35:AB35)</f>
+        <v>11</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="36" ht="15.15" hidden="1" spans="1:12">
@@ -2838,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.15" spans="1:28">
+    <row r="39" ht="15.15" spans="1:31">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
@@ -2906,8 +3004,18 @@
       <c r="AB39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" hidden="1" spans="1:12">
+      <c r="AC39" s="1">
+        <f>SUBTOTAL(9,H39:AB39)</f>
+        <v>30</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" ht="15.15" hidden="1" spans="1:12">
       <c r="A40" s="5" t="s">
         <v>100</v>
       </c>
@@ -2965,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.15" spans="1:28">
+    <row r="42" ht="15.15" spans="1:31">
       <c r="A42" s="5" t="s">
         <v>103</v>
       </c>
@@ -3022,8 +3130,18 @@
       <c r="AB42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" ht="15.15" spans="1:28">
+      <c r="AC42" s="1">
+        <f>SUBTOTAL(9,H42:AB42)</f>
+        <v>14</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" ht="15.15" spans="1:31">
       <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
@@ -3077,8 +3195,18 @@
       <c r="AB43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" ht="15.15" spans="1:28">
+      <c r="AC43" s="1">
+        <f>SUBTOTAL(9,H43:AB43)</f>
+        <v>25</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" ht="15.15" spans="1:31">
       <c r="A44" s="5" t="s">
         <v>107</v>
       </c>
@@ -3148,6 +3276,16 @@
       </c>
       <c r="AB44" s="1">
         <v>1</v>
+      </c>
+      <c r="AC44" s="1">
+        <f>SUBTOTAL(9,H44:AB44)</f>
+        <v>44</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="45" ht="15.15" hidden="1" spans="1:12">
@@ -3179,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.15" spans="1:22">
+    <row r="46" ht="15.15" spans="1:31">
       <c r="A46" s="5" t="s">
         <v>112</v>
       </c>
@@ -3208,6 +3346,16 @@
       <c r="J46" s="5"/>
       <c r="V46" s="1">
         <v>1</v>
+      </c>
+      <c r="AC46" s="1">
+        <f>SUBTOTAL(9,H46:AB46)</f>
+        <v>2</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="47" ht="15.15" hidden="1" spans="1:12">
@@ -3239,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.15" spans="1:28">
+    <row r="48" ht="15.15" spans="1:31">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -3310,8 +3458,18 @@
       <c r="AB48" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" hidden="1" spans="1:12">
+      <c r="AC48" s="1">
+        <f>SUBTOTAL(9,H48:AB48)</f>
+        <v>36</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" ht="15.15" hidden="1" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -3340,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.15" spans="1:10">
+    <row r="50" ht="15.15" hidden="1" spans="1:10">
       <c r="A50" s="5" t="s">
         <v>121</v>
       </c>
@@ -3478,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" ht="15.15" spans="1:31">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -3530,6 +3688,16 @@
       </c>
       <c r="Y55" s="1">
         <v>1</v>
+      </c>
+      <c r="AC55" s="1">
+        <f>SUBTOTAL(9,H55:AB55)</f>
+        <v>17</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="15.15" hidden="1" spans="1:12">
@@ -3561,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.15" spans="1:23">
+    <row r="57" ht="15.15" spans="1:31">
       <c r="A57" s="5" t="s">
         <v>138</v>
       </c>
@@ -3617,8 +3785,18 @@
       <c r="W57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" ht="15.15" spans="1:24">
+      <c r="AC57" s="1">
+        <f>SUBTOTAL(9,H57:AB57)</f>
+        <v>17</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" ht="15.15" spans="1:31">
       <c r="A58" s="5" t="s">
         <v>140</v>
       </c>
@@ -3671,8 +3849,18 @@
       <c r="X58" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" ht="15.15" spans="1:28">
+      <c r="AC58" s="1">
+        <f>SUBTOTAL(9,H58:AB58)</f>
+        <v>29</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" ht="15.15" spans="1:29">
       <c r="A59" s="5" t="s">
         <v>142</v>
       </c>
@@ -3729,8 +3917,12 @@
       <c r="AB59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" hidden="1" spans="1:12">
+      <c r="AC59" s="1">
+        <f>SUBTOTAL(9,H59:AB59)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" ht="15.15" hidden="1" spans="1:12">
       <c r="A60" s="5" t="s">
         <v>144</v>
       </c>
@@ -3755,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.15" spans="1:28">
+    <row r="61" ht="15.15" spans="1:31">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -3814,8 +4006,18 @@
       <c r="AB61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" ht="15.15" spans="1:28">
+      <c r="AC61" s="1">
+        <f>SUBTOTAL(9,H61:AB61)</f>
+        <v>29</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" ht="15.15" spans="1:31">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -3826,7 +4028,9 @@
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="G62" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -3844,6 +4048,16 @@
       </c>
       <c r="AB62" s="1">
         <v>-1</v>
+      </c>
+      <c r="AC62" s="1">
+        <f>SUBTOTAL(9,H62:AB62)</f>
+        <v>1</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="63" ht="15.15" spans="1:10">
@@ -3858,7 +4072,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" ht="15.15" spans="1:10">
+    <row r="64" spans="1:10">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -3870,7 +4084,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" ht="15.15" spans="1:10">
+    <row r="65" spans="1:10">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -3882,7 +4096,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" ht="15.15" spans="1:10">
+    <row r="66" spans="1:10">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3894,7 +4108,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" ht="15.15" spans="1:10">
+    <row r="67" spans="1:10">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3906,7 +4120,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" ht="15.15" spans="1:10">
+    <row r="68" spans="1:10">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3918,7 +4132,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" ht="15.15" spans="1:10">
+    <row r="69" spans="1:10">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3930,7 +4144,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" ht="15.15" spans="1:10">
+    <row r="70" spans="1:10">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3942,7 +4156,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" ht="15.15" spans="1:10">
+    <row r="71" spans="1:10">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3954,7 +4168,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" ht="15.15" spans="1:10">
+    <row r="72" spans="1:10">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3966,7 +4180,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" ht="15.15" spans="1:10">
+    <row r="73" spans="1:10">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3978,7 +4192,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" ht="15.15" spans="1:10">
+    <row r="74" spans="1:10">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3990,7 +4204,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" ht="15.15" spans="1:10">
+    <row r="75" spans="1:10">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -4002,7 +4216,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" ht="15.15" spans="1:10">
+    <row r="76" spans="1:10">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -4014,7 +4228,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" ht="15.15" spans="1:10">
+    <row r="77" spans="1:10">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -4026,7 +4240,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" ht="15.15" spans="1:10">
+    <row r="78" spans="1:10">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -4038,7 +4252,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" ht="15.15" spans="1:10">
+    <row r="79" spans="1:10">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -4050,7 +4264,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" ht="15.15" spans="1:10">
+    <row r="80" spans="1:10">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -4062,7 +4276,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" ht="15.15" spans="1:10">
+    <row r="81" spans="1:10">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -4074,7 +4288,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" ht="15.15" spans="1:10">
+    <row r="82" spans="1:10">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -4086,7 +4300,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" ht="15.15" spans="1:10">
+    <row r="83" spans="1:10">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -4098,7 +4312,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" ht="15.15" spans="1:10">
+    <row r="84" spans="1:10">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4110,7 +4324,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" ht="15.15" spans="1:10">
+    <row r="85" spans="1:10">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -4122,7 +4336,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" ht="15.15" spans="1:10">
+    <row r="86" spans="1:10">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -4134,7 +4348,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" ht="15.15" spans="1:10">
+    <row r="87" spans="1:10">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4146,7 +4360,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" ht="15.15" spans="1:10">
+    <row r="88" spans="1:10">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -4158,7 +4372,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" ht="15.15" spans="1:10">
+    <row r="89" spans="1:10">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -4170,7 +4384,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" ht="15.15" spans="1:10">
+    <row r="90" spans="1:10">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -4182,7 +4396,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" ht="15.15" spans="1:10">
+    <row r="91" spans="1:10">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -4194,7 +4408,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" ht="15.15" spans="1:10">
+    <row r="92" spans="1:10">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -4206,7 +4420,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" ht="15.15" spans="1:10">
+    <row r="93" spans="1:10">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -4218,7 +4432,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" ht="15.15" spans="1:10">
+    <row r="94" spans="1:10">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4230,7 +4444,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" ht="15.15" spans="1:10">
+    <row r="95" spans="1:10">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4242,7 +4456,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" ht="15.15" spans="1:10">
+    <row r="96" spans="1:10">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4254,7 +4468,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" ht="15.15" spans="1:10">
+    <row r="97" spans="1:10">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4266,7 +4480,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" ht="15.15" spans="1:10">
+    <row r="98" spans="1:10">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4278,7 +4492,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" ht="15.15" spans="1:10">
+    <row r="99" spans="1:10">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4290,7 +4504,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" ht="15.15" spans="1:10">
+    <row r="100" spans="1:10">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4302,7 +4516,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" ht="15.15" spans="1:10">
+    <row r="101" spans="1:10">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4314,7 +4528,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" ht="15.15" spans="1:10">
+    <row r="102" spans="1:10">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4326,7 +4540,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" ht="15.15" spans="1:10">
+    <row r="103" spans="1:10">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4338,7 +4552,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" ht="15.15" spans="1:10">
+    <row r="104" spans="1:10">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4350,7 +4564,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" ht="15.15" spans="1:10">
+    <row r="105" spans="1:10">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4362,7 +4576,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" ht="15.15" spans="1:10">
+    <row r="106" spans="1:10">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4374,7 +4588,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" ht="15.15" spans="1:10">
+    <row r="107" spans="1:10">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4386,7 +4600,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" ht="15.15" spans="1:10">
+    <row r="108" spans="1:10">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4398,7 +4612,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" ht="15.15" spans="1:10">
+    <row r="109" spans="1:10">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4410,7 +4624,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" ht="15.15" spans="1:10">
+    <row r="110" spans="1:10">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4422,7 +4636,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" ht="15.15" spans="1:10">
+    <row r="111" spans="1:10">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4434,7 +4648,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" ht="15.15" spans="1:10">
+    <row r="112" spans="1:10">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4446,7 +4660,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" ht="15.15" spans="1:10">
+    <row r="113" spans="1:10">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4458,7 +4672,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" ht="15.15" spans="1:10">
+    <row r="114" spans="1:10">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4470,7 +4684,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" ht="15.15" spans="1:10">
+    <row r="115" spans="1:10">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4482,7 +4696,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" ht="15.15" spans="1:10">
+    <row r="116" spans="1:10">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4494,7 +4708,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" ht="15.15" spans="1:10">
+    <row r="117" spans="1:10">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4506,7 +4720,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" ht="15.15" spans="1:10">
+    <row r="118" spans="1:10">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4518,7 +4732,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" ht="15.15" spans="1:10">
+    <row r="119" spans="1:10">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4530,7 +4744,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" ht="15.15" spans="1:10">
+    <row r="120" spans="1:10">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4542,7 +4756,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" ht="15.15" spans="1:10">
+    <row r="121" spans="1:10">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4554,7 +4768,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" ht="15.15" spans="1:10">
+    <row r="122" spans="1:10">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4566,7 +4780,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" ht="15.15" spans="1:10">
+    <row r="123" spans="1:10">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4578,7 +4792,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" ht="15.15" spans="1:10">
+    <row r="124" spans="1:10">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4590,7 +4804,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" ht="15.15" spans="1:10">
+    <row r="125" spans="1:10">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4602,7 +4816,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" ht="15.15" spans="1:10">
+    <row r="126" spans="1:10">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4614,7 +4828,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" ht="15.15" spans="1:10">
+    <row r="127" spans="1:10">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4626,7 +4840,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" ht="15.15" spans="1:10">
+    <row r="128" spans="1:10">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4638,7 +4852,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" ht="15.15" spans="1:10">
+    <row r="129" spans="1:10">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4650,7 +4864,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" ht="15.15" spans="1:10">
+    <row r="130" spans="1:10">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4662,7 +4876,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" ht="15.15" spans="1:10">
+    <row r="131" spans="1:10">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4674,7 +4888,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" ht="15.15" spans="1:10">
+    <row r="132" spans="1:10">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4686,7 +4900,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" ht="15.15" spans="1:10">
+    <row r="133" spans="1:10">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4698,7 +4912,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" ht="15.15" spans="1:10">
+    <row r="134" spans="1:10">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4710,7 +4924,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" ht="15.15" spans="1:10">
+    <row r="135" spans="1:10">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4722,7 +4936,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" ht="15.15" spans="1:10">
+    <row r="136" spans="1:10">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4734,7 +4948,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" ht="15.15" spans="1:10">
+    <row r="137" spans="1:10">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4746,7 +4960,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" ht="15.15" spans="1:10">
+    <row r="138" spans="1:10">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4758,7 +4972,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" ht="15.15" spans="1:10">
+    <row r="139" spans="1:10">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4770,7 +4984,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" ht="15.15" spans="1:10">
+    <row r="140" spans="1:10">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4782,7 +4996,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" ht="15.15" spans="1:10">
+    <row r="141" spans="1:10">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4794,7 +5008,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" ht="15.15" spans="1:10">
+    <row r="142" spans="1:10">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4806,7 +5020,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" ht="15.15" spans="1:10">
+    <row r="143" spans="1:10">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4818,7 +5032,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" ht="15.15" spans="1:10">
+    <row r="144" spans="1:10">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4830,7 +5044,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" ht="15.15" spans="1:10">
+    <row r="145" spans="1:10">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4842,7 +5056,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" ht="15.15" spans="1:10">
+    <row r="146" spans="1:10">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4854,7 +5068,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" ht="15.15" spans="1:10">
+    <row r="147" spans="1:10">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4866,7 +5080,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" ht="15.15" spans="1:10">
+    <row r="148" spans="1:10">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4878,7 +5092,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" ht="15.15" spans="1:10">
+    <row r="149" spans="1:10">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4890,7 +5104,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" ht="15.15" spans="1:10">
+    <row r="150" spans="1:10">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>

--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="18468" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,12 +468,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -499,12 +499,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -520,7 +535,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -535,19 +550,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,16 +566,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,8 +590,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,7 +614,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,35 +641,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -651,19 +651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,55 +681,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +717,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,7 +777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,37 +795,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,19 +825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,41 +860,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,10 +882,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -957,6 +927,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -971,139 +971,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,13 +1116,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,14 +1454,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE150"/>
+  <dimension ref="A1:AF150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X10" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF11" sqref="AF11"/>
+      <selection pane="bottomRight" activeCell="AG62" sqref="AG1:AG62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1492,10 +1492,11 @@
     <col min="29" max="29" width="8.62962962962963" style="1" customWidth="1"/>
     <col min="30" max="30" width="10.8888888888889" style="1"/>
     <col min="31" max="31" width="2.66666666666667" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.88888888888889" style="1"/>
+    <col min="32" max="32" width="10.8888888888889" style="1"/>
+    <col min="33" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1544,8 +1545,11 @@
       <c r="AD1" s="12">
         <v>44527</v>
       </c>
-    </row>
-    <row r="2" ht="15.15" spans="1:29">
+      <c r="AF1" s="12">
+        <v>44534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1694,7 +1698,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="15.15" spans="1:31">
+    <row r="6" spans="1:31">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1804,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="15.15" spans="1:29">
+    <row r="9" spans="1:29">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:29">
+    <row r="11" spans="1:29">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -2129,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.15" spans="1:31">
+    <row r="19" spans="1:31">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2180,7 +2184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="15.15" spans="1:31">
+    <row r="20" ht="15.15" spans="1:32">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -2246,8 +2250,11 @@
       <c r="AE20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" ht="15.15" hidden="1" spans="1:12">
+      <c r="AF20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -2276,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.15" hidden="1" spans="1:10">
+    <row r="22" hidden="1" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -2300,7 +2307,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" ht="15.15" spans="1:31">
+    <row r="23" ht="15.15" spans="1:32">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -2383,8 +2390,11 @@
       <c r="AE23" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" ht="15.15" hidden="1" spans="1:12">
+      <c r="AF23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -2413,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:31">
+    <row r="25" ht="15.15" spans="1:32">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -2466,6 +2476,9 @@
       </c>
       <c r="AE25" s="1">
         <v>4</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="15.15" hidden="1" spans="1:12">
@@ -2579,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.15" spans="1:31">
+    <row r="30" spans="1:31">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -2638,7 +2651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" ht="15.15" spans="1:31">
+    <row r="31" spans="1:31">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -2776,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.15" spans="1:31">
+    <row r="35" spans="1:31">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -2936,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.15" spans="1:31">
+    <row r="39" ht="15.15" spans="1:32">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
@@ -3013,6 +3026,9 @@
       </c>
       <c r="AE39" s="1">
         <v>4</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="15.15" hidden="1" spans="1:12">
@@ -3073,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.15" spans="1:31">
+    <row r="42" spans="1:31">
       <c r="A42" s="5" t="s">
         <v>103</v>
       </c>
@@ -3141,7 +3157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" ht="15.15" spans="1:31">
+    <row r="43" ht="15.15" spans="1:32">
       <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
@@ -3205,8 +3221,11 @@
       <c r="AE43" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" ht="15.15" spans="1:31">
+      <c r="AF43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" s="5" t="s">
         <v>107</v>
       </c>
@@ -3317,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.15" spans="1:31">
+    <row r="46" spans="1:31">
       <c r="A46" s="5" t="s">
         <v>112</v>
       </c>
@@ -3387,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.15" spans="1:31">
+    <row r="48" ht="15.15" spans="1:32">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -3468,8 +3487,11 @@
       <c r="AE48" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" ht="15.15" hidden="1" spans="1:12">
+      <c r="AF48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -3498,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.15" hidden="1" spans="1:10">
+    <row r="50" hidden="1" spans="1:10">
       <c r="A50" s="5" t="s">
         <v>121</v>
       </c>
@@ -3522,7 +3544,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" ht="15.15" hidden="1" spans="1:12">
+    <row r="51" hidden="1" spans="1:12">
       <c r="A51" s="5" t="s">
         <v>124</v>
       </c>
@@ -3551,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="15.15" hidden="1" spans="1:12">
+    <row r="52" hidden="1" spans="1:12">
       <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
@@ -3580,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="15.15" hidden="1" spans="1:12">
+    <row r="53" hidden="1" spans="1:12">
       <c r="A53" s="5" t="s">
         <v>127</v>
       </c>
@@ -3607,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="15.15" hidden="1" spans="1:12">
+    <row r="54" hidden="1" spans="1:12">
       <c r="A54" s="5" t="s">
         <v>131</v>
       </c>
@@ -3636,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.15" spans="1:31">
+    <row r="55" ht="15.15" spans="1:32">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -3698,6 +3720,9 @@
       </c>
       <c r="AE55" s="1">
         <v>4</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="56" ht="15.15" hidden="1" spans="1:12">
@@ -3796,7 +3821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" ht="15.15" spans="1:31">
+    <row r="58" ht="15.15" spans="1:32">
       <c r="A58" s="5" t="s">
         <v>140</v>
       </c>
@@ -3858,6 +3883,9 @@
       </c>
       <c r="AE58" s="1">
         <v>4</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="15.15" spans="1:29">
@@ -3947,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.15" spans="1:31">
+    <row r="61" ht="15.15" spans="1:32">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -4016,8 +4044,11 @@
       <c r="AE61" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" ht="15.15" spans="1:31">
+      <c r="AF61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="15.15" spans="1:32">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -4058,6 +4089,9 @@
       </c>
       <c r="AE62" s="1">
         <v>4</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="15.15" spans="1:10">
@@ -4072,7 +4106,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" ht="15.15" spans="1:10">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4084,7 +4118,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" ht="15.15" spans="1:10">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -4096,7 +4130,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" ht="15.15" spans="1:10">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4108,7 +4142,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" ht="15.15" spans="1:10">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4120,7 +4154,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" ht="15.15" spans="1:10">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4132,7 +4166,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" ht="15.15" spans="1:10">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4144,7 +4178,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" ht="15.15" spans="1:10">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4156,7 +4190,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" ht="15.15" spans="1:10">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -4168,7 +4202,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" ht="15.15" spans="1:10">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -4180,7 +4214,7 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" ht="15.15" spans="1:10">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -4192,7 +4226,7 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" ht="15.15" spans="1:10">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -4204,7 +4238,7 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" ht="15.15" spans="1:10">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -4216,7 +4250,7 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" ht="15.15" spans="1:10">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -4228,7 +4262,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" ht="15.15" spans="1:10">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -4240,7 +4274,7 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" ht="15.15" spans="1:10">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -4252,7 +4286,7 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" ht="15.15" spans="1:10">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -4264,7 +4298,7 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" ht="15.15" spans="1:10">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -4276,7 +4310,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" ht="15.15" spans="1:10">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -4288,7 +4322,7 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" ht="15.15" spans="1:10">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -4300,7 +4334,7 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" ht="15.15" spans="1:10">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -4312,7 +4346,7 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" ht="15.15" spans="1:10">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4324,7 +4358,7 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" ht="15.15" spans="1:10">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -4336,7 +4370,7 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" ht="15.15" spans="1:10">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -4348,7 +4382,7 @@
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" ht="15.15" spans="1:10">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4360,7 +4394,7 @@
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" ht="15.15" spans="1:10">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -4372,7 +4406,7 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" ht="15.15" spans="1:10">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -4384,7 +4418,7 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" ht="15.15" spans="1:10">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -4396,7 +4430,7 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" ht="15.15" spans="1:10">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -4408,7 +4442,7 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" ht="15.15" spans="1:10">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -4420,7 +4454,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" ht="15.15" spans="1:10">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -4432,7 +4466,7 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" ht="15.15" spans="1:10">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4444,7 +4478,7 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" ht="15.15" spans="1:10">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4456,7 +4490,7 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" ht="15.15" spans="1:10">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4468,7 +4502,7 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" ht="15.15" spans="1:10">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4480,7 +4514,7 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" ht="15.15" spans="1:10">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4492,7 +4526,7 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" ht="15.15" spans="1:10">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4504,7 +4538,7 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" ht="15.15" spans="1:10">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4516,7 +4550,7 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" ht="15.15" spans="1:10">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4528,7 +4562,7 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" ht="15.15" spans="1:10">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4540,7 +4574,7 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" ht="15.15" spans="1:10">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4552,7 +4586,7 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" ht="15.15" spans="1:10">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4564,7 +4598,7 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" ht="15.15" spans="1:10">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4576,7 +4610,7 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" ht="15.15" spans="1:10">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4588,7 +4622,7 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" ht="15.15" spans="1:10">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4600,7 +4634,7 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" ht="15.15" spans="1:10">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4612,7 +4646,7 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" ht="15.15" spans="1:10">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4624,7 +4658,7 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" ht="15.15" spans="1:10">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4636,7 +4670,7 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" ht="15.15" spans="1:10">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4648,7 +4682,7 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" ht="15.15" spans="1:10">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4660,7 +4694,7 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" ht="15.15" spans="1:10">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4672,7 +4706,7 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" ht="15.15" spans="1:10">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4684,7 +4718,7 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" ht="15.15" spans="1:10">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4696,7 +4730,7 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" ht="15.15" spans="1:10">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4708,7 +4742,7 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" ht="15.15" spans="1:10">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4720,7 +4754,7 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" ht="15.15" spans="1:10">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4732,7 +4766,7 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" ht="15.15" spans="1:10">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4744,7 +4778,7 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" ht="15.15" spans="1:10">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4756,7 +4790,7 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" ht="15.15" spans="1:10">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4768,7 +4802,7 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" ht="15.15" spans="1:10">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4780,7 +4814,7 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" ht="15.15" spans="1:10">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4792,7 +4826,7 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" ht="15.15" spans="1:10">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4804,7 +4838,7 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" ht="15.15" spans="1:10">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4816,7 +4850,7 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" ht="15.15" spans="1:10">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4828,7 +4862,7 @@
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" ht="15.15" spans="1:10">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4840,7 +4874,7 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" ht="15.15" spans="1:10">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4852,7 +4886,7 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" ht="15.15" spans="1:10">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4864,7 +4898,7 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" ht="15.15" spans="1:10">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4876,7 +4910,7 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" ht="15.15" spans="1:10">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4888,7 +4922,7 @@
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" ht="15.15" spans="1:10">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4900,7 +4934,7 @@
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" ht="15.15" spans="1:10">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4912,7 +4946,7 @@
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" ht="15.15" spans="1:10">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4924,7 +4958,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" ht="15.15" spans="1:10">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4936,7 +4970,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" ht="15.15" spans="1:10">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4948,7 +4982,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" ht="15.15" spans="1:10">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4960,7 +4994,7 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" ht="15.15" spans="1:10">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4972,7 +5006,7 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" ht="15.15" spans="1:10">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4984,7 +5018,7 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" ht="15.15" spans="1:10">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4996,7 +5030,7 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" ht="15.15" spans="1:10">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -5008,7 +5042,7 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" ht="15.15" spans="1:10">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -5020,7 +5054,7 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" ht="15.15" spans="1:10">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -5032,7 +5066,7 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" ht="15.15" spans="1:10">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -5044,7 +5078,7 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" ht="15.15" spans="1:10">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -5056,7 +5090,7 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" ht="15.15" spans="1:10">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -5068,7 +5102,7 @@
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" ht="15.15" spans="1:10">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -5080,7 +5114,7 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" ht="15.15" spans="1:10">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -5092,7 +5126,7 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" ht="15.15" spans="1:10">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -5104,7 +5138,7 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" ht="15.15" spans="1:10">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>

--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,13 +468,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -499,7 +499,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,6 +538,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,24 +567,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,24 +581,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,17 +590,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,29 +612,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -637,6 +629,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,19 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +669,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,19 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,73 +747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,7 +765,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,25 +819,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,13 +860,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,11 +884,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,6 +910,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,39 +940,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,139 +971,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,23 +1116,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,14 +1454,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AF150"/>
+  <dimension ref="A1:AG150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X10" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG62" sqref="AG1:AG62"/>
+      <selection pane="bottomRight" activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1492,11 +1492,11 @@
     <col min="29" max="29" width="8.62962962962963" style="1" customWidth="1"/>
     <col min="30" max="30" width="10.8888888888889" style="1"/>
     <col min="31" max="31" width="2.66666666666667" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.8888888888889" style="1"/>
-    <col min="33" max="16384" width="8.88888888888889" style="1"/>
+    <col min="32" max="33" width="10.8888888888889" style="1"/>
+    <col min="34" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1548,8 +1548,11 @@
       <c r="AF1" s="12">
         <v>44534</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AG1" s="12">
+        <v>44541</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:33">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1619,6 +1622,9 @@
       <c r="AC2" s="1">
         <f>SUBTOTAL(9,H2:AB2)</f>
         <v>33</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.15" hidden="1" spans="1:10">
@@ -1698,7 +1704,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:33">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1749,6 +1755,9 @@
       </c>
       <c r="AE6" s="1">
         <v>4</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="15.15" hidden="1" spans="1:12">
@@ -1804,7 +1813,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:33">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1867,6 +1876,9 @@
       <c r="AC9" s="1">
         <f>SUBTOTAL(9,H9:AB9)</f>
         <v>9</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="15.15" hidden="1" spans="1:12">
@@ -1898,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" ht="15.15" spans="1:29">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -2133,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:33">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2183,6 +2195,9 @@
       <c r="AE19" s="1">
         <v>4</v>
       </c>
+      <c r="AG19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" ht="15.15" spans="1:32">
       <c r="A20" s="5" t="s">
@@ -2254,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:12">
+    <row r="21" ht="15.15" hidden="1" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -2283,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:10">
+    <row r="22" ht="15.15" hidden="1" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -2391,10 +2406,10 @@
         <v>4</v>
       </c>
       <c r="AF23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" spans="1:12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" hidden="1" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -2423,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:32">
+    <row r="25" spans="1:33">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -2478,6 +2493,9 @@
         <v>4</v>
       </c>
       <c r="AF25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2592,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:33">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -2650,8 +2668,11 @@
       <c r="AE30" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AG30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -2702,6 +2723,9 @@
       </c>
       <c r="AE31" s="1">
         <v>4</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="15.15" hidden="1" spans="1:12">
@@ -2789,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:33">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -2860,6 +2884,9 @@
       </c>
       <c r="AE35" s="1">
         <v>4</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="15.15" hidden="1" spans="1:12">
@@ -2949,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.15" spans="1:32">
+    <row r="39" ht="15.15" spans="1:33">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
@@ -3029,6 +3056,9 @@
       </c>
       <c r="AF39" s="1">
         <v>1</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="40" ht="15.15" hidden="1" spans="1:12">
@@ -3089,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:33">
       <c r="A42" s="5" t="s">
         <v>103</v>
       </c>
@@ -3156,8 +3186,11 @@
       <c r="AE42" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" ht="15.15" spans="1:32">
+      <c r="AG42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
@@ -3224,8 +3257,11 @@
       <c r="AF43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AG43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" s="5" t="s">
         <v>107</v>
       </c>
@@ -3305,6 +3341,9 @@
       </c>
       <c r="AE44" s="1">
         <v>4</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="15.15" hidden="1" spans="1:12">
@@ -3336,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" ht="15.15" spans="1:31">
       <c r="A46" s="5" t="s">
         <v>112</v>
       </c>
@@ -3491,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:12">
+    <row r="49" ht="15.15" hidden="1" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -3520,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:10">
+    <row r="50" ht="15.15" hidden="1" spans="1:10">
       <c r="A50" s="5" t="s">
         <v>121</v>
       </c>
@@ -3544,7 +3583,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" hidden="1" spans="1:12">
+    <row r="51" ht="15.15" hidden="1" spans="1:12">
       <c r="A51" s="5" t="s">
         <v>124</v>
       </c>
@@ -3573,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:12">
+    <row r="52" ht="15.15" hidden="1" spans="1:12">
       <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
@@ -3602,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:12">
+    <row r="53" ht="15.15" hidden="1" spans="1:12">
       <c r="A53" s="5" t="s">
         <v>127</v>
       </c>
@@ -3629,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:12">
+    <row r="54" ht="15.15" hidden="1" spans="1:12">
       <c r="A54" s="5" t="s">
         <v>131</v>
       </c>
@@ -3658,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.15" spans="1:32">
+    <row r="55" spans="1:33">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -3722,6 +3761,9 @@
         <v>4</v>
       </c>
       <c r="AF55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3754,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.15" spans="1:31">
+    <row r="57" spans="1:33">
       <c r="A57" s="5" t="s">
         <v>138</v>
       </c>
@@ -3820,8 +3862,11 @@
       <c r="AE57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" ht="15.15" spans="1:32">
+      <c r="AG57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" s="5" t="s">
         <v>140</v>
       </c>
@@ -3887,8 +3932,11 @@
       <c r="AF58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" ht="15.15" spans="1:29">
+      <c r="AG58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" s="5" t="s">
         <v>142</v>
       </c>
@@ -3948,6 +3996,9 @@
       <c r="AC59" s="1">
         <f>SUBTOTAL(9,H59:AB59)</f>
         <v>8</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="15.15" hidden="1" spans="1:12">
@@ -3975,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.15" spans="1:32">
+    <row r="61" spans="1:33">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -4047,8 +4098,11 @@
       <c r="AF61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" ht="15.15" spans="1:32">
+      <c r="AG61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -4091,6 +4145,9 @@
         <v>4</v>
       </c>
       <c r="AF62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG62" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
+    <workbookView windowWidth="18468" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$62</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -468,13 +468,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -499,25 +499,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,13 +534,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -544,7 +551,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,38 +574,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,7 +597,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -627,8 +619,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,7 +651,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +747,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,73 +801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,79 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,30 +861,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -899,26 +875,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,11 +927,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,153 +942,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,76 +1116,76 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1454,14 +1454,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AG150"/>
+  <dimension ref="A1:AJ150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF23" sqref="AF23"/>
+      <selection pane="bottomRight" activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1492,11 +1492,11 @@
     <col min="29" max="29" width="8.62962962962963" style="1" customWidth="1"/>
     <col min="30" max="30" width="10.8888888888889" style="1"/>
     <col min="31" max="31" width="2.66666666666667" style="1" customWidth="1"/>
-    <col min="32" max="33" width="10.8888888888889" style="1"/>
-    <col min="34" max="16384" width="8.88888888888889" style="1"/>
+    <col min="32" max="36" width="10.8888888888889" style="1"/>
+    <col min="37" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:36">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1551,8 +1551,17 @@
       <c r="AG1" s="12">
         <v>44541</v>
       </c>
-    </row>
-    <row r="2" ht="15.15" spans="1:33">
+      <c r="AH1" s="12">
+        <v>44548</v>
+      </c>
+      <c r="AI1" s="12">
+        <v>44583</v>
+      </c>
+      <c r="AJ1" s="12">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1624,6 +1633,9 @@
         <v>33</v>
       </c>
       <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1704,7 +1716,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" ht="15.15" spans="1:35">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1757,6 +1769,9 @@
         <v>4</v>
       </c>
       <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1813,7 +1828,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" ht="15.15" spans="1:35">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1878,6 +1893,9 @@
         <v>9</v>
       </c>
       <c r="AG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2145,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" ht="15.15" spans="1:34">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2196,6 +2214,9 @@
         <v>4</v>
       </c>
       <c r="AG19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2322,7 +2343,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" ht="15.15" spans="1:32">
+    <row r="23" ht="15.15" spans="1:35">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -2407,6 +2428,12 @@
       </c>
       <c r="AF23" s="1">
         <v>6</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="15.15" hidden="1" spans="1:12">
@@ -2438,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" ht="15.15" spans="1:33">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -2610,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" ht="15.15" spans="1:35">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -2671,8 +2698,14 @@
       <c r="AG30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="AH30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:34">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -2725,6 +2758,9 @@
         <v>4</v>
       </c>
       <c r="AG31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2813,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" ht="15.15" spans="1:35">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -2886,6 +2922,9 @@
         <v>4</v>
       </c>
       <c r="AG35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2976,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.15" spans="1:33">
+    <row r="39" ht="15.15" spans="1:35">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
@@ -3059,6 +3098,12 @@
       </c>
       <c r="AG39" s="1">
         <v>6</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="15.15" hidden="1" spans="1:12">
@@ -3119,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" ht="15.15" spans="1:35">
       <c r="A42" s="5" t="s">
         <v>103</v>
       </c>
@@ -3189,8 +3234,14 @@
       <c r="AG42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:33">
+      <c r="AH42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="15.15" spans="1:34">
       <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
@@ -3260,8 +3311,11 @@
       <c r="AG43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:33">
+      <c r="AH43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="15.15" spans="1:35">
       <c r="A44" s="5" t="s">
         <v>107</v>
       </c>
@@ -3343,6 +3397,12 @@
         <v>4</v>
       </c>
       <c r="AG44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3445,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.15" spans="1:32">
+    <row r="48" ht="15.15" spans="1:35">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -3527,6 +3587,12 @@
         <v>4</v>
       </c>
       <c r="AF48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3697,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" ht="15.15" spans="1:34">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -3764,6 +3830,9 @@
         <v>1</v>
       </c>
       <c r="AG55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3796,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" ht="15.15" spans="1:35">
       <c r="A57" s="5" t="s">
         <v>138</v>
       </c>
@@ -3865,8 +3934,14 @@
       <c r="AG57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:33">
+      <c r="AH57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" ht="15.15" spans="1:35">
       <c r="A58" s="5" t="s">
         <v>140</v>
       </c>
@@ -3935,8 +4010,14 @@
       <c r="AG58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:33">
+      <c r="AH58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="15.15" spans="1:35">
       <c r="A59" s="5" t="s">
         <v>142</v>
       </c>
@@ -3998,6 +4079,9 @@
         <v>8</v>
       </c>
       <c r="AG59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4026,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" ht="15.15" spans="1:35">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -4101,8 +4185,14 @@
       <c r="AG61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:33">
+      <c r="AH61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="15.15" spans="1:35">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -4148,6 +4238,12 @@
         <v>1</v>
       </c>
       <c r="AG62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI62" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -468,13 +468,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -505,6 +505,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -519,23 +542,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -550,16 +558,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,19 +581,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,9 +607,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,24 +635,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,7 +651,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,31 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,31 +735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,13 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,19 +765,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,19 +795,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,6 +861,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -877,15 +892,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -895,17 +901,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,16 +929,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,153 +948,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,23 +1116,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,14 +1454,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AJ150"/>
+  <dimension ref="A1:AK150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ9" sqref="AJ9"/>
+      <selection pane="bottomRight" activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1558,10 +1558,10 @@
         <v>44583</v>
       </c>
       <c r="AJ1" s="12">
-        <v>44590</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
+        <v>44611</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:37">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1638,8 +1638,11 @@
       <c r="AH2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="15.15" hidden="1" spans="1:10">
+      <c r="AK2" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1663,7 +1666,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="15.15" hidden="1" spans="1:12">
+    <row r="4" hidden="1" spans="1:12">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="15.15" hidden="1" spans="1:10">
+    <row r="5" hidden="1" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1716,7 +1719,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="15.15" spans="1:35">
+    <row r="6" ht="15.15" spans="1:37">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1774,8 +1777,14 @@
       <c r="AI6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" ht="15.15" hidden="1" spans="1:12">
+      <c r="AJ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:12">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15.15" hidden="1" spans="1:10">
+    <row r="8" hidden="1" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1828,7 +1837,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="15.15" spans="1:35">
+    <row r="9" ht="15.15" spans="1:37">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1898,8 +1907,14 @@
       <c r="AI9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" ht="15.15" hidden="1" spans="1:12">
+      <c r="AJ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -1928,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:29">
+    <row r="11" spans="1:37">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1959,8 +1974,11 @@
         <f>SUBTOTAL(9,H11:AB11)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" ht="15.15" hidden="1" spans="1:12">
+      <c r="AK11" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:12">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -1989,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15.15" hidden="1" spans="1:12">
+    <row r="13" hidden="1" spans="1:12">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2018,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15.15" hidden="1" spans="1:12">
+    <row r="14" hidden="1" spans="1:12">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -2047,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15.15" hidden="1" spans="1:12">
+    <row r="15" hidden="1" spans="1:12">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2076,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15.15" hidden="1" spans="1:12">
+    <row r="16" hidden="1" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -2105,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15.15" hidden="1" spans="1:12">
+    <row r="17" hidden="1" spans="1:12">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -2134,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15.15" hidden="1" spans="1:12">
+    <row r="18" hidden="1" spans="1:12">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -2163,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.15" spans="1:34">
+    <row r="19" spans="1:37">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2219,8 +2237,11 @@
       <c r="AH19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" ht="15.15" spans="1:32">
+      <c r="AK19" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -2289,8 +2310,11 @@
       <c r="AF20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" ht="15.15" hidden="1" spans="1:12">
+      <c r="AK20" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -2319,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15.15" hidden="1" spans="1:10">
+    <row r="22" hidden="1" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -2343,7 +2367,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" ht="15.15" spans="1:35">
+    <row r="23" ht="15.15" spans="1:37">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -2435,8 +2459,14 @@
       <c r="AI23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" ht="15.15" hidden="1" spans="1:12">
+      <c r="AJ23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -2465,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:33">
+    <row r="25" ht="15.15" spans="1:37">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -2525,8 +2555,14 @@
       <c r="AG25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" ht="15.15" hidden="1" spans="1:12">
+      <c r="AJ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:12">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -2555,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.15" hidden="1" spans="1:12">
+    <row r="27" hidden="1" spans="1:12">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -2584,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.15" hidden="1" spans="1:10">
+    <row r="28" hidden="1" spans="1:10">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -2608,7 +2644,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" ht="15.15" hidden="1" spans="1:12">
+    <row r="29" hidden="1" spans="1:12">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
@@ -2637,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.15" spans="1:35">
+    <row r="30" ht="15.15" spans="1:37">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -2704,8 +2740,14 @@
       <c r="AI30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" ht="15.15" spans="1:34">
+      <c r="AJ30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:37">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -2763,8 +2805,14 @@
       <c r="AH31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" ht="15.15" hidden="1" spans="1:12">
+      <c r="AJ31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:12">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -2793,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15.15" hidden="1" spans="1:12">
+    <row r="33" hidden="1" spans="1:12">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -2820,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15.15" hidden="1" spans="1:12">
+    <row r="34" hidden="1" spans="1:12">
       <c r="A34" s="5" t="s">
         <v>83</v>
       </c>
@@ -2849,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.15" spans="1:35">
+    <row r="35" spans="1:37">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -2927,8 +2975,11 @@
       <c r="AI35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" ht="15.15" hidden="1" spans="1:12">
+      <c r="AK35" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:12">
       <c r="A36" s="5" t="s">
         <v>89</v>
       </c>
@@ -2957,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15.15" hidden="1" spans="1:12">
+    <row r="37" hidden="1" spans="1:12">
       <c r="A37" s="5" t="s">
         <v>92</v>
       </c>
@@ -2986,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15.15" hidden="1" spans="1:12">
+    <row r="38" hidden="1" spans="1:12">
       <c r="A38" s="5" t="s">
         <v>95</v>
       </c>
@@ -3015,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.15" spans="1:35">
+    <row r="39" ht="15.15" spans="1:37">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
@@ -3105,8 +3156,14 @@
       <c r="AI39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" ht="15.15" hidden="1" spans="1:12">
+      <c r="AJ39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:12">
       <c r="A40" s="5" t="s">
         <v>100</v>
       </c>
@@ -3135,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="15.15" hidden="1" spans="1:12">
+    <row r="41" hidden="1" spans="1:12">
       <c r="A41" s="5" t="s">
         <v>102</v>
       </c>
@@ -3164,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.15" spans="1:35">
+    <row r="42" spans="1:37">
       <c r="A42" s="5" t="s">
         <v>103</v>
       </c>
@@ -3240,8 +3297,11 @@
       <c r="AI42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" ht="15.15" spans="1:34">
+      <c r="AK42" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="43" ht="15.15" spans="1:37">
       <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
@@ -3314,8 +3374,14 @@
       <c r="AH43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" ht="15.15" spans="1:35">
+      <c r="AJ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="44" ht="15.15" spans="1:37">
       <c r="A44" s="5" t="s">
         <v>107</v>
       </c>
@@ -3405,8 +3471,14 @@
       <c r="AI44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" ht="15.15" hidden="1" spans="1:12">
+      <c r="AJ44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="1:12">
       <c r="A45" s="5" t="s">
         <v>110</v>
       </c>
@@ -3435,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.15" spans="1:31">
+    <row r="46" spans="1:37">
       <c r="A46" s="5" t="s">
         <v>112</v>
       </c>
@@ -3475,8 +3547,11 @@
       <c r="AE46" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" ht="15.15" hidden="1" spans="1:12">
+      <c r="AK46" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:12">
       <c r="A47" s="5" t="s">
         <v>115</v>
       </c>
@@ -3505,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.15" spans="1:35">
+    <row r="48" ht="15.15" spans="1:37">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -3595,8 +3670,14 @@
       <c r="AI48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" ht="15.15" hidden="1" spans="1:12">
+      <c r="AJ48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -3625,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.15" hidden="1" spans="1:10">
+    <row r="50" hidden="1" spans="1:10">
       <c r="A50" s="5" t="s">
         <v>121</v>
       </c>
@@ -3649,7 +3730,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" ht="15.15" hidden="1" spans="1:12">
+    <row r="51" hidden="1" spans="1:12">
       <c r="A51" s="5" t="s">
         <v>124</v>
       </c>
@@ -3678,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="15.15" hidden="1" spans="1:12">
+    <row r="52" hidden="1" spans="1:12">
       <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
@@ -3707,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="15.15" hidden="1" spans="1:12">
+    <row r="53" hidden="1" spans="1:12">
       <c r="A53" s="5" t="s">
         <v>127</v>
       </c>
@@ -3734,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="15.15" hidden="1" spans="1:12">
+    <row r="54" hidden="1" spans="1:12">
       <c r="A54" s="5" t="s">
         <v>131</v>
       </c>
@@ -3763,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.15" spans="1:34">
+    <row r="55" spans="1:37">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -3835,8 +3916,11 @@
       <c r="AH55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" ht="15.15" hidden="1" spans="1:12">
+      <c r="AK55" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="1:12">
       <c r="A56" s="5" t="s">
         <v>136</v>
       </c>
@@ -3865,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.15" spans="1:35">
+    <row r="57" ht="15.15" spans="1:37">
       <c r="A57" s="5" t="s">
         <v>138</v>
       </c>
@@ -3940,8 +4024,14 @@
       <c r="AI57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" ht="15.15" spans="1:35">
+      <c r="AJ57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="58" ht="15.15" spans="1:37">
       <c r="A58" s="5" t="s">
         <v>140</v>
       </c>
@@ -4016,8 +4106,14 @@
       <c r="AI58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" ht="15.15" spans="1:35">
+      <c r="AJ58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37">
       <c r="A59" s="5" t="s">
         <v>142</v>
       </c>
@@ -4084,8 +4180,11 @@
       <c r="AI59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" ht="15.15" hidden="1" spans="1:12">
+      <c r="AK59" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:12">
       <c r="A60" s="5" t="s">
         <v>144</v>
       </c>
@@ -4110,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.15" spans="1:35">
+    <row r="61" spans="1:37">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -4191,8 +4290,11 @@
       <c r="AI61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" ht="15.15" spans="1:35">
+      <c r="AK61" s="1">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="62" ht="15.15" spans="1:37">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -4245,6 +4347,12 @@
       </c>
       <c r="AI62" s="1">
         <v>1</v>
+      </c>
+      <c r="AJ62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="1">
+        <v>-20</v>
       </c>
     </row>
     <row r="63" ht="15.15" spans="1:10">

--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -468,13 +468,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -499,6 +499,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -515,44 +529,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,6 +573,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -605,6 +605,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -622,21 +629,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,6 +648,138 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -663,37 +795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,115 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +825,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,36 +860,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -904,8 +874,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,6 +919,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -948,166 +957,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,23 +1116,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,14 +1457,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AK150"/>
+  <dimension ref="A1:AL150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK2" sqref="AK2"/>
+      <selection pane="bottomRight" activeCell="AL58" sqref="AL58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1496,7 +1499,7 @@
     <col min="37" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1560,8 +1563,11 @@
       <c r="AJ1" s="12">
         <v>44611</v>
       </c>
-    </row>
-    <row r="2" ht="15.15" spans="1:37">
+      <c r="AL1" s="13">
+        <v>44618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:10">
+    <row r="3" ht="15.15" hidden="1" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1666,7 +1672,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" hidden="1" spans="1:12">
+    <row r="4" ht="15.15" hidden="1" spans="1:12">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:10">
+    <row r="5" ht="15.15" hidden="1" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:12">
+    <row r="7" ht="15.15" hidden="1" spans="1:12">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:10">
+    <row r="8" ht="15.15" hidden="1" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:12">
+    <row r="10" ht="15.15" hidden="1" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" ht="15.15" spans="1:37">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:12">
+    <row r="12" ht="15.15" hidden="1" spans="1:12">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:12">
+    <row r="13" ht="15.15" hidden="1" spans="1:12">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:12">
+    <row r="14" ht="15.15" hidden="1" spans="1:12">
       <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:12">
+    <row r="15" ht="15.15" hidden="1" spans="1:12">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:12">
+    <row r="16" ht="15.15" hidden="1" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:12">
+    <row r="17" ht="15.15" hidden="1" spans="1:12">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:12">
+    <row r="18" ht="15.15" hidden="1" spans="1:12">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" ht="15.15" spans="1:37">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" ht="15.15" spans="1:37">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:12">
+    <row r="21" ht="15.15" hidden="1" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:10">
+    <row r="22" ht="15.15" hidden="1" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -2367,7 +2373,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" ht="15.15" spans="1:37">
+    <row r="23" spans="1:38">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -2465,8 +2471,11 @@
       <c r="AK23" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="24" hidden="1" spans="1:12">
+      <c r="AL23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" hidden="1" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -2562,7 +2571,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:12">
+    <row r="26" ht="15.15" hidden="1" spans="1:12">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:12">
+    <row r="27" ht="15.15" hidden="1" spans="1:12">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -2620,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:10">
+    <row r="28" ht="15.15" hidden="1" spans="1:10">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -2644,7 +2653,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" hidden="1" spans="1:12">
+    <row r="29" ht="15.15" hidden="1" spans="1:12">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
@@ -2673,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.15" spans="1:37">
+    <row r="30" spans="1:38">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -2746,8 +2755,11 @@
       <c r="AK30" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="31" ht="15.15" spans="1:37">
+      <c r="AL30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -2811,8 +2823,11 @@
       <c r="AK31" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="32" hidden="1" spans="1:12">
+      <c r="AL31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="15.15" hidden="1" spans="1:12">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -2841,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:12">
+    <row r="33" ht="15.15" hidden="1" spans="1:12">
       <c r="A33" s="5" t="s">
         <v>83</v>
       </c>
@@ -2868,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:12">
+    <row r="34" ht="15.15" hidden="1" spans="1:12">
       <c r="A34" s="5" t="s">
         <v>83</v>
       </c>
@@ -2897,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:38">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -2978,8 +2993,11 @@
       <c r="AK35" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="36" hidden="1" spans="1:12">
+      <c r="AL35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="15.15" hidden="1" spans="1:12">
       <c r="A36" s="5" t="s">
         <v>89</v>
       </c>
@@ -3008,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:12">
+    <row r="37" ht="15.15" hidden="1" spans="1:12">
       <c r="A37" s="5" t="s">
         <v>92</v>
       </c>
@@ -3037,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:12">
+    <row r="38" ht="15.15" hidden="1" spans="1:12">
       <c r="A38" s="5" t="s">
         <v>95</v>
       </c>
@@ -3163,7 +3181,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:12">
+    <row r="40" ht="15.15" hidden="1" spans="1:12">
       <c r="A40" s="5" t="s">
         <v>100</v>
       </c>
@@ -3192,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:12">
+    <row r="41" ht="15.15" hidden="1" spans="1:12">
       <c r="A41" s="5" t="s">
         <v>102</v>
       </c>
@@ -3221,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" ht="15.15" spans="1:37">
       <c r="A42" s="5" t="s">
         <v>103</v>
       </c>
@@ -3381,7 +3399,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="44" ht="15.15" spans="1:37">
+    <row r="44" spans="1:38">
       <c r="A44" s="5" t="s">
         <v>107</v>
       </c>
@@ -3477,8 +3495,11 @@
       <c r="AK44" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="45" hidden="1" spans="1:12">
+      <c r="AL44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="15.15" hidden="1" spans="1:12">
       <c r="A45" s="5" t="s">
         <v>110</v>
       </c>
@@ -3507,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" ht="15.15" spans="1:37">
       <c r="A46" s="5" t="s">
         <v>112</v>
       </c>
@@ -3551,7 +3572,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:12">
+    <row r="47" ht="15.15" hidden="1" spans="1:12">
       <c r="A47" s="5" t="s">
         <v>115</v>
       </c>
@@ -3580,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.15" spans="1:37">
+    <row r="48" spans="1:38">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -3676,8 +3697,11 @@
       <c r="AK48" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="49" hidden="1" spans="1:12">
+      <c r="AL48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="15.15" hidden="1" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -3706,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:10">
+    <row r="50" ht="15.15" hidden="1" spans="1:10">
       <c r="A50" s="5" t="s">
         <v>121</v>
       </c>
@@ -3730,7 +3754,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" hidden="1" spans="1:12">
+    <row r="51" ht="15.15" hidden="1" spans="1:12">
       <c r="A51" s="5" t="s">
         <v>124</v>
       </c>
@@ -3759,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:12">
+    <row r="52" ht="15.15" hidden="1" spans="1:12">
       <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
@@ -3788,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:12">
+    <row r="53" ht="15.15" hidden="1" spans="1:12">
       <c r="A53" s="5" t="s">
         <v>127</v>
       </c>
@@ -3815,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:12">
+    <row r="54" ht="15.15" hidden="1" spans="1:12">
       <c r="A54" s="5" t="s">
         <v>131</v>
       </c>
@@ -3844,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" ht="15.15" spans="1:38">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -3916,11 +3940,17 @@
       <c r="AH55" s="1">
         <v>1</v>
       </c>
+      <c r="AJ55" s="1">
+        <v>1</v>
+      </c>
       <c r="AK55" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="56" hidden="1" spans="1:12">
+      <c r="AL55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="15.15" hidden="1" spans="1:12">
       <c r="A56" s="5" t="s">
         <v>136</v>
       </c>
@@ -3949,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15.15" spans="1:37">
+    <row r="57" spans="1:38">
       <c r="A57" s="5" t="s">
         <v>138</v>
       </c>
@@ -4030,8 +4060,11 @@
       <c r="AK57" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="58" ht="15.15" spans="1:37">
+      <c r="AL57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38">
       <c r="A58" s="5" t="s">
         <v>140</v>
       </c>
@@ -4112,8 +4145,11 @@
       <c r="AK58" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="59" spans="1:37">
+      <c r="AL58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="15.15" spans="1:37">
       <c r="A59" s="5" t="s">
         <v>142</v>
       </c>
@@ -4184,7 +4220,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:12">
+    <row r="60" ht="15.15" hidden="1" spans="1:12">
       <c r="A60" s="5" t="s">
         <v>144</v>
       </c>
@@ -4209,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" ht="15.15" spans="1:37">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -4294,7 +4330,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="62" ht="15.15" spans="1:37">
+    <row r="62" spans="1:38">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -4353,6 +4389,9 @@
       </c>
       <c r="AK62" s="1">
         <v>-20</v>
+      </c>
+      <c r="AL62" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="63" ht="15.15" spans="1:10">

--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="148">
   <si>
     <t>Family_ch_i</t>
   </si>
@@ -468,13 +468,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -499,13 +499,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -519,24 +512,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,6 +552,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,13 +576,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,29 +606,21 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -651,7 +651,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,19 +693,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,67 +783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,19 +801,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,49 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,20 +862,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,6 +910,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,7 +944,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,38 +952,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,148 +962,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,26 +1116,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1457,14 +1457,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AL150"/>
+  <dimension ref="A1:AM150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL58" sqref="AL58"/>
+      <selection pane="bottomRight" activeCell="AM30" sqref="AM30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1499,7 +1499,7 @@
     <col min="37" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" ht="15.15" spans="1:39">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1566,8 +1566,11 @@
       <c r="AL1" s="13">
         <v>44618</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AM1" s="13">
+        <v>44632</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:39">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1647,8 +1650,11 @@
       <c r="AK2" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="3" ht="15.15" hidden="1" spans="1:10">
+      <c r="AM2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" hidden="1" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1725,7 +1731,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" ht="15.15" spans="1:37">
+    <row r="6" ht="15.15" spans="1:39">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1788,6 +1794,9 @@
       </c>
       <c r="AK6" s="1">
         <v>-20</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" ht="15.15" hidden="1" spans="1:12">
@@ -1920,7 +1929,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="10" ht="15.15" hidden="1" spans="1:12">
+    <row r="10" hidden="1" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -1949,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15.15" spans="1:37">
+    <row r="11" ht="15.15" hidden="1" spans="1:37">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1968,9 +1977,7 @@
       <c r="F11" s="7">
         <v>7</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5">
@@ -1978,7 +1985,7 @@
       </c>
       <c r="AC11" s="1">
         <f>SUBTOTAL(9,H11:AB11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="1">
         <v>-20</v>
@@ -2187,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.15" spans="1:37">
+    <row r="19" ht="15.15" hidden="1" spans="1:37">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -2206,9 +2213,7 @@
       <c r="F19" s="7">
         <v>6</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -2229,7 +2234,7 @@
       </c>
       <c r="AC19" s="1">
         <f>SUBTOTAL(9,H19:AB19)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="1">
         <v>1</v>
@@ -2373,7 +2378,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" ht="15.15" spans="1:39">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -2473,6 +2478,9 @@
       </c>
       <c r="AL23" s="1">
         <v>1</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="15.15" hidden="1" spans="1:12">
@@ -2504,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:37">
+    <row r="25" ht="15.15" spans="1:39">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -2570,8 +2578,14 @@
       <c r="AK25" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="26" ht="15.15" hidden="1" spans="1:12">
+      <c r="AL25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:12">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -2682,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" ht="15.15" spans="1:39">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -2758,8 +2772,11 @@
       <c r="AL30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:38">
+      <c r="AM30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:38">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -2824,10 +2841,10 @@
         <v>-20</v>
       </c>
       <c r="AL31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" ht="15.15" hidden="1" spans="1:12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:12">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -2912,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" ht="15.15" spans="1:38">
       <c r="A35" s="5" t="s">
         <v>87</v>
       </c>
@@ -2997,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="15.15" hidden="1" spans="1:12">
+    <row r="36" hidden="1" spans="1:12">
       <c r="A36" s="5" t="s">
         <v>89</v>
       </c>
@@ -3084,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.15" spans="1:37">
+    <row r="39" ht="15.15" spans="1:39">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
@@ -3179,6 +3196,9 @@
       </c>
       <c r="AK39" s="1">
         <v>-20</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="15.15" hidden="1" spans="1:12">
@@ -3239,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.15" spans="1:37">
+    <row r="42" spans="1:39">
       <c r="A42" s="5" t="s">
         <v>103</v>
       </c>
@@ -3318,8 +3338,11 @@
       <c r="AK42" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="43" ht="15.15" spans="1:37">
+      <c r="AM42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39">
       <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
@@ -3398,8 +3421,11 @@
       <c r="AK43" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="44" spans="1:38">
+      <c r="AM43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="15.15" spans="1:39">
       <c r="A44" s="5" t="s">
         <v>107</v>
       </c>
@@ -3496,6 +3522,9 @@
         <v>-20</v>
       </c>
       <c r="AL44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3528,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="15.15" spans="1:37">
+    <row r="46" ht="15.15" hidden="1" spans="1:37">
       <c r="A46" s="5" t="s">
         <v>112</v>
       </c>
@@ -3547,9 +3576,7 @@
       <c r="F46" s="7">
         <v>6</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="G46" s="5"/>
       <c r="H46" s="5">
         <v>1</v>
       </c>
@@ -3560,7 +3587,7 @@
       </c>
       <c r="AC46" s="1">
         <f>SUBTOTAL(9,H46:AB46)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="1">
         <v>1</v>
@@ -3601,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" ht="15.15" spans="1:39">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -3700,8 +3727,11 @@
       <c r="AL48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" ht="15.15" hidden="1" spans="1:12">
+      <c r="AM48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -3868,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.15" spans="1:38">
+    <row r="55" ht="15.15" spans="1:39">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -3947,6 +3977,9 @@
         <v>-20</v>
       </c>
       <c r="AL55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4061,10 +4094,10 @@
         <v>-20</v>
       </c>
       <c r="AL57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39">
       <c r="A58" s="5" t="s">
         <v>140</v>
       </c>
@@ -4148,8 +4181,11 @@
       <c r="AL58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" ht="15.15" spans="1:37">
+      <c r="AM58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="15.15" spans="1:39">
       <c r="A59" s="5" t="s">
         <v>142</v>
       </c>
@@ -4218,6 +4254,9 @@
       </c>
       <c r="AK59" s="1">
         <v>-20</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="60" ht="15.15" hidden="1" spans="1:12">
@@ -4245,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.15" spans="1:37">
+    <row r="61" spans="1:37">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -4330,7 +4369,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:39">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -4391,6 +4430,9 @@
         <v>-20</v>
       </c>
       <c r="AL62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM62" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
+++ b/Рабочие материалы/Реальные группы/Первый год_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9312"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="148">
   <si>
     <t>Family_ch_i</t>
   </si>
@@ -468,12 +468,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="178" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="180" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -513,21 +513,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -542,6 +527,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -551,7 +544,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,6 +576,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,10 +613,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -627,20 +641,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -651,61 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +693,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,7 +747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,37 +771,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,31 +801,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,15 +860,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -885,6 +876,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -895,21 +901,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,6 +935,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -962,148 +962,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,13 +1116,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1135,7 +1135,7 @@
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1457,14 +1457,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AM150"/>
+  <dimension ref="A1:AO150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM30" sqref="AM30"/>
+      <selection pane="bottomRight" activeCell="AO31" sqref="AO31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1499,7 +1499,7 @@
     <col min="37" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1569,8 +1569,14 @@
       <c r="AM1" s="13">
         <v>44632</v>
       </c>
-    </row>
-    <row r="2" ht="15.15" spans="1:39">
+      <c r="AN1" s="13">
+        <v>44646</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1647,14 +1653,17 @@
       <c r="AH2" s="1">
         <v>1</v>
       </c>
-      <c r="AK2" s="1">
-        <v>-20</v>
-      </c>
       <c r="AM2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" hidden="1" spans="1:10">
+      <c r="AN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" hidden="1" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1792,9 +1801,6 @@
       <c r="AJ6" s="1">
         <v>1</v>
       </c>
-      <c r="AK6" s="1">
-        <v>-20</v>
-      </c>
       <c r="AM6" s="1">
         <v>1</v>
       </c>
@@ -1852,7 +1858,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" ht="15.15" spans="1:37">
+    <row r="9" ht="15.15" spans="1:36">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1925,11 +1931,8 @@
       <c r="AJ9" s="1">
         <v>1</v>
       </c>
-      <c r="AK9" s="1">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" spans="1:12">
+    </row>
+    <row r="10" ht="15.15" hidden="1" spans="1:12">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="20" ht="15.15" spans="1:37">
+    <row r="20" ht="15.15" spans="1:32">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -2320,9 +2323,6 @@
       </c>
       <c r="AF20" s="1">
         <v>1</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>-20</v>
       </c>
     </row>
     <row r="21" ht="15.15" hidden="1" spans="1:12">
@@ -2473,9 +2473,6 @@
       <c r="AJ23" s="1">
         <v>1</v>
       </c>
-      <c r="AK23" s="1">
-        <v>-20</v>
-      </c>
       <c r="AL23" s="1">
         <v>1</v>
       </c>
@@ -2512,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="1:39">
+    <row r="25" ht="15.15" spans="1:40">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
@@ -2575,17 +2572,17 @@
       <c r="AJ25" s="1">
         <v>1</v>
       </c>
-      <c r="AK25" s="1">
-        <v>-20</v>
-      </c>
       <c r="AL25" s="1">
         <v>2</v>
       </c>
       <c r="AM25" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" hidden="1" spans="1:12">
+      <c r="AN25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="15.15" hidden="1" spans="1:12">
       <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
@@ -2696,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.15" spans="1:39">
+    <row r="30" ht="15.15" spans="1:40">
       <c r="A30" s="5" t="s">
         <v>78</v>
       </c>
@@ -2766,17 +2763,17 @@
       <c r="AJ30" s="1">
         <v>1</v>
       </c>
-      <c r="AK30" s="1">
-        <v>-20</v>
-      </c>
       <c r="AL30" s="1">
         <v>1</v>
       </c>
       <c r="AM30" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" ht="15.15" spans="1:38">
+      <c r="AN30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -2837,14 +2834,14 @@
       <c r="AJ31" s="1">
         <v>1</v>
       </c>
-      <c r="AK31" s="1">
-        <v>-20</v>
-      </c>
       <c r="AL31" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" hidden="1" spans="1:12">
+      <c r="AO31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="15.15" hidden="1" spans="1:12">
       <c r="A32" s="5" t="s">
         <v>82</v>
       </c>
@@ -3007,14 +3004,11 @@
       <c r="AI35" s="1">
         <v>1</v>
       </c>
-      <c r="AK35" s="1">
-        <v>-20</v>
-      </c>
       <c r="AL35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:12">
+    <row r="36" ht="15.15" hidden="1" spans="1:12">
       <c r="A36" s="5" t="s">
         <v>89</v>
       </c>
@@ -3101,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.15" spans="1:39">
+    <row r="39" ht="15.15" spans="1:40">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
@@ -3194,10 +3188,10 @@
       <c r="AJ39" s="1">
         <v>1</v>
       </c>
-      <c r="AK39" s="1">
-        <v>-20</v>
-      </c>
       <c r="AM39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3259,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" ht="15.15" spans="1:39">
       <c r="A42" s="5" t="s">
         <v>103</v>
       </c>
@@ -3335,14 +3329,11 @@
       <c r="AI42" s="1">
         <v>1</v>
       </c>
-      <c r="AK42" s="1">
-        <v>-20</v>
-      </c>
       <c r="AM42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" ht="15.15" spans="1:39">
       <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
@@ -3418,14 +3409,11 @@
       <c r="AJ43" s="1">
         <v>1</v>
       </c>
-      <c r="AK43" s="1">
-        <v>-20</v>
-      </c>
       <c r="AM43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="15.15" spans="1:39">
+    <row r="44" ht="15.15" spans="1:40">
       <c r="A44" s="5" t="s">
         <v>107</v>
       </c>
@@ -3518,13 +3506,13 @@
       <c r="AJ44" s="1">
         <v>1</v>
       </c>
-      <c r="AK44" s="1">
-        <v>-20</v>
-      </c>
       <c r="AL44" s="1">
         <v>1</v>
       </c>
       <c r="AM44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3628,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="15.15" spans="1:39">
+    <row r="48" ht="15.15" spans="1:40">
       <c r="A48" s="5" t="s">
         <v>117</v>
       </c>
@@ -3721,17 +3709,17 @@
       <c r="AJ48" s="1">
         <v>1</v>
       </c>
-      <c r="AK48" s="1">
-        <v>-20</v>
-      </c>
       <c r="AL48" s="1">
         <v>1</v>
       </c>
       <c r="AM48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" hidden="1" spans="1:12">
+      <c r="AN48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="15.15" hidden="1" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -3898,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.15" spans="1:39">
+    <row r="55" ht="15.15" spans="1:40">
       <c r="A55" s="5" t="s">
         <v>133</v>
       </c>
@@ -3973,13 +3961,13 @@
       <c r="AJ55" s="1">
         <v>1</v>
       </c>
-      <c r="AK55" s="1">
-        <v>-20</v>
-      </c>
       <c r="AL55" s="1">
         <v>1</v>
       </c>
       <c r="AM55" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4012,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" ht="15.15" spans="1:38">
       <c r="A57" s="5" t="s">
         <v>138</v>
       </c>
@@ -4090,14 +4078,11 @@
       <c r="AJ57" s="1">
         <v>1</v>
       </c>
-      <c r="AK57" s="1">
-        <v>-20</v>
-      </c>
       <c r="AL57" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" ht="15.15" spans="1:40">
       <c r="A58" s="5" t="s">
         <v>140</v>
       </c>
@@ -4175,13 +4160,13 @@
       <c r="AJ58" s="1">
         <v>1</v>
       </c>
-      <c r="AK58" s="1">
-        <v>-20</v>
-      </c>
       <c r="AL58" s="1">
         <v>1</v>
       </c>
       <c r="AM58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4251,9 +4236,6 @@
       </c>
       <c r="AI59" s="1">
         <v>1</v>
-      </c>
-      <c r="AK59" s="1">
-        <v>-20</v>
       </c>
       <c r="AM59" s="1">
         <v>1</v>
@@ -4284,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" ht="15.15" spans="1:35">
       <c r="A61" s="5" t="s">
         <v>145</v>
       </c>
@@ -4365,11 +4347,8 @@
       <c r="AI61" s="1">
         <v>1</v>
       </c>
-      <c r="AK61" s="1">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:39">
+    </row>
+    <row r="62" ht="15.15" spans="1:40">
       <c r="A62" s="5" t="s">
         <v>147</v>
       </c>
@@ -4426,13 +4405,13 @@
       <c r="AJ62" s="1">
         <v>1</v>
       </c>
-      <c r="AK62" s="1">
-        <v>-20</v>
-      </c>
       <c r="AL62" s="1">
         <v>1</v>
       </c>
       <c r="AM62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN62" s="1">
         <v>1</v>
       </c>
     </row>
